--- a/标准格式.xlsx
+++ b/标准格式.xlsx
@@ -1,21 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView windowWidth="17400" windowHeight="11505"/>
-  </bookViews>
   <sheets>
-    <sheet name="转置前" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet state="visible" name="转置前" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet3" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="431">
   <si>
     <t>FBillHead(BEM_KZFXSGGS)</t>
   </si>
@@ -369,6 +366,24 @@
   </si>
   <si>
     <t>操作温度 max</t>
+  </si>
+  <si>
+    <t>F_BEM_GKMD1</t>
+  </si>
+  <si>
+    <t>工况密度 1</t>
+  </si>
+  <si>
+    <t>F_BEM_GKMD2</t>
+  </si>
+  <si>
+    <t>工况密度 2</t>
+  </si>
+  <si>
+    <t>F_BEM_GKMD3</t>
+  </si>
+  <si>
+    <t>工况密度 3</t>
   </si>
   <si>
     <t>F_BEM_ZSLPD1</t>
@@ -1295,725 +1310,98 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="SimSun"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="1"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5D9F1"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFC5D9F1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
+    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="50">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="Normal" xfId="49"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="WPS">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4874CB"/>
@@ -2037,115 +1425,81 @@
         <a:srgbClr val="0026E5"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
+        <a:srgbClr val="0026E5"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="WPS">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="SimSun"/>
+        <a:ea typeface="SimSun"/>
+        <a:cs typeface="SimSun"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="SimSun"/>
+        <a:ea typeface="SimSun"/>
+        <a:cs typeface="SimSun"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="WPS">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumOff val="17500"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2159,38 +1513,20 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
@@ -2242,26 +1578,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:W214"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
-    <col min="2" max="2" width="37.125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="23.75"/>
+    <col customWidth="1" min="2" max="2" width="32.5"/>
+    <col customWidth="1" min="3" max="26" width="7.88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2269,7 +1604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2277,7 +1612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" ht="13.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2285,7 +1620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2293,7 +1628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2301,7 +1636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" ht="13.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2309,7 +1644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -2317,7 +1652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -2325,7 +1660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" ht="13.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -2333,7 +1668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -2341,7 +1676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -2349,7 +1684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2357,7 +1692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2365,7 +1700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2373,7 +1708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -2381,7 +1716,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -2389,7 +1724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2397,7 +1732,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2405,7 +1740,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -2413,7 +1748,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" ht="13.5" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -2421,7 +1756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -2429,7 +1764,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -2437,7 +1772,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -2445,7 +1780,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -2453,7 +1788,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -2461,7 +1796,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -2469,7 +1804,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" ht="13.5" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2477,7 +1812,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" ht="13.5" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -2485,7 +1820,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -2493,7 +1828,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -2501,7 +1836,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" ht="13.5" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -2509,7 +1844,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" ht="13" customHeight="1" spans="1:2">
+    <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -2517,7 +1852,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -2525,7 +1860,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -2533,7 +1868,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -2541,7 +1876,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -2549,7 +1884,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
@@ -2557,7 +1892,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -2565,7 +1900,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
@@ -2573,7 +1908,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" ht="13.5" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -2581,7 +1916,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" ht="13.5" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
@@ -2589,7 +1924,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
@@ -2597,7 +1932,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
@@ -2605,7 +1940,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" ht="13.5" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -2613,7 +1948,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
@@ -2621,7 +1956,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
@@ -2629,7 +1964,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -2637,7 +1972,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" ht="13.5" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
@@ -2645,7 +1980,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" ht="13.5" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -2653,7 +1988,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" ht="13.5" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
@@ -2661,7 +1996,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
@@ -2669,7 +2004,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>102</v>
       </c>
@@ -2677,7 +2012,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" ht="13.5" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
@@ -2685,7 +2020,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" ht="13.5" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
@@ -2693,7 +2028,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
@@ -2701,7 +2036,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" ht="13.5" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
@@ -2709,7 +2044,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" ht="13.5" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>112</v>
       </c>
@@ -2717,7 +2052,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" ht="13.5" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
@@ -2725,7 +2060,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" ht="13.5" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
@@ -2733,31 +2068,31 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2" t="s">
+    <row r="60" ht="13.5" customHeight="1">
+      <c r="A60" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2" t="s">
+    <row r="61" ht="13.5" customHeight="1">
+      <c r="A61" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2" t="s">
+    <row r="62" ht="13.5" customHeight="1">
+      <c r="A62" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" ht="13.5" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
@@ -2765,7 +2100,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" ht="13.5" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>126</v>
       </c>
@@ -2773,7 +2108,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" ht="13.5" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>128</v>
       </c>
@@ -2781,7 +2116,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" ht="13.5" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
@@ -2789,7 +2124,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" ht="13.5" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
@@ -2797,7 +2132,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" ht="13.5" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
@@ -2805,7 +2140,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" ht="13.5" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -2813,7 +2148,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" ht="13.5" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>138</v>
       </c>
@@ -2821,7 +2156,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" ht="13.5" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>140</v>
       </c>
@@ -2829,7 +2164,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" ht="13.5" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>142</v>
       </c>
@@ -2837,7 +2172,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" ht="13.5" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>144</v>
       </c>
@@ -2845,7 +2180,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" ht="13.5" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>146</v>
       </c>
@@ -2853,7 +2188,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" ht="13.5" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>148</v>
       </c>
@@ -2861,7 +2196,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" ht="13.5" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>150</v>
       </c>
@@ -2869,7 +2204,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" ht="13.5" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>152</v>
       </c>
@@ -2877,7 +2212,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" ht="13.5" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>154</v>
       </c>
@@ -2885,7 +2220,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" ht="13.5" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>156</v>
       </c>
@@ -2893,7 +2228,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" ht="13.5" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>158</v>
       </c>
@@ -2901,7 +2236,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" ht="13.5" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>160</v>
       </c>
@@ -2909,7 +2244,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" ht="13.5" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>162</v>
       </c>
@@ -2917,7 +2252,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" ht="13.5" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>164</v>
       </c>
@@ -2925,7 +2260,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" ht="13.5" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>166</v>
       </c>
@@ -2933,7 +2268,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" ht="13.5" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>168</v>
       </c>
@@ -2941,7 +2276,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" ht="13.5" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>170</v>
       </c>
@@ -2949,7 +2284,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" ht="13.5" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>172</v>
       </c>
@@ -2957,7 +2292,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" ht="13.5" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>174</v>
       </c>
@@ -2965,7 +2300,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" ht="13.5" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>176</v>
       </c>
@@ -2973,7 +2308,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" ht="13.5" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>178</v>
       </c>
@@ -2981,7 +2316,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" ht="13.5" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>180</v>
       </c>
@@ -2989,7 +2324,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" ht="13.5" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>182</v>
       </c>
@@ -2997,7 +2332,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" ht="13.5" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>184</v>
       </c>
@@ -3005,7 +2340,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" ht="13.5" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>186</v>
       </c>
@@ -3013,7 +2348,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" ht="13.5" customHeight="1">
       <c r="A95" s="2" t="s">
         <v>188</v>
       </c>
@@ -3021,7 +2356,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" ht="13.5" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>190</v>
       </c>
@@ -3029,7 +2364,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" ht="13.5" customHeight="1">
       <c r="A97" s="2" t="s">
         <v>192</v>
       </c>
@@ -3037,7 +2372,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" ht="13.5" customHeight="1">
       <c r="A98" s="2" t="s">
         <v>194</v>
       </c>
@@ -3045,7 +2380,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" ht="13.5" customHeight="1">
       <c r="A99" s="2" t="s">
         <v>196</v>
       </c>
@@ -3053,7 +2388,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" ht="13.5" customHeight="1">
       <c r="A100" s="2" t="s">
         <v>198</v>
       </c>
@@ -3061,7 +2396,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" ht="13.5" customHeight="1">
       <c r="A101" s="2" t="s">
         <v>200</v>
       </c>
@@ -3069,7 +2404,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" ht="13.5" customHeight="1">
       <c r="A102" s="2" t="s">
         <v>202</v>
       </c>
@@ -3077,7 +2412,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" ht="13.5" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>204</v>
       </c>
@@ -3085,7 +2420,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" ht="13.5" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>206</v>
       </c>
@@ -3093,7 +2428,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" ht="13.5" customHeight="1">
       <c r="A105" s="2" t="s">
         <v>208</v>
       </c>
@@ -3101,7 +2436,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" ht="13.5" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>210</v>
       </c>
@@ -3109,7 +2444,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" ht="13.5" customHeight="1">
       <c r="A107" s="2" t="s">
         <v>212</v>
       </c>
@@ -3117,7 +2452,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" ht="13.5" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>214</v>
       </c>
@@ -3125,7 +2460,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" ht="13.5" customHeight="1">
       <c r="A109" s="2" t="s">
         <v>216</v>
       </c>
@@ -3133,7 +2468,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" ht="13.5" customHeight="1">
       <c r="A110" s="2" t="s">
         <v>218</v>
       </c>
@@ -3141,7 +2476,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" ht="13.5" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>220</v>
       </c>
@@ -3149,7 +2484,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" ht="13.5" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>222</v>
       </c>
@@ -3157,7 +2492,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" ht="13.5" customHeight="1">
       <c r="A113" s="2" t="s">
         <v>224</v>
       </c>
@@ -3165,7 +2500,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" ht="13.5" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>226</v>
       </c>
@@ -3173,7 +2508,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" ht="13.5" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>228</v>
       </c>
@@ -3181,7 +2516,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" ht="13.5" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>230</v>
       </c>
@@ -3189,7 +2524,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" ht="20" customHeight="1" spans="1:2">
+    <row r="117" ht="13.5" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>232</v>
       </c>
@@ -3197,7 +2532,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" ht="13.5" customHeight="1">
       <c r="A118" s="2" t="s">
         <v>234</v>
       </c>
@@ -3205,7 +2540,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" ht="13.5" customHeight="1">
       <c r="A119" s="2" t="s">
         <v>236</v>
       </c>
@@ -3213,7 +2548,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" ht="19.5" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>238</v>
       </c>
@@ -3221,7 +2556,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" ht="13.5" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>240</v>
       </c>
@@ -3229,7 +2564,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" ht="13.5" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>242</v>
       </c>
@@ -3237,7 +2572,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" ht="13.5" customHeight="1">
       <c r="A123" s="2" t="s">
         <v>244</v>
       </c>
@@ -3245,7 +2580,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" ht="13.5" customHeight="1">
       <c r="A124" s="2" t="s">
         <v>246</v>
       </c>
@@ -3253,7 +2588,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" ht="13.5" customHeight="1">
       <c r="A125" s="2" t="s">
         <v>248</v>
       </c>
@@ -3261,47 +2596,47 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" ht="13.5" customHeight="1">
       <c r="A126" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" ht="13.5" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" ht="13.5" customHeight="1">
+      <c r="A128" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" ht="13.5" customHeight="1">
+      <c r="A129" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="130" ht="13.5" customHeight="1">
+      <c r="A130" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+    <row r="131" ht="13.5" customHeight="1">
       <c r="A131" s="2" t="s">
         <v>258</v>
       </c>
@@ -3309,39 +2644,39 @@
         <v>259</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" ht="13.5" customHeight="1">
       <c r="A132" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133" ht="13.5" customHeight="1">
+      <c r="A133" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="134" ht="13.5" customHeight="1">
+      <c r="A134" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" ht="13.5" customHeight="1">
+      <c r="A135" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+    <row r="136" ht="13.5" customHeight="1">
       <c r="A136" s="2" t="s">
         <v>267</v>
       </c>
@@ -3349,7 +2684,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" ht="13.5" customHeight="1">
       <c r="A137" s="2" t="s">
         <v>269</v>
       </c>
@@ -3357,47 +2692,47 @@
         <v>270</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" ht="13.5" customHeight="1">
       <c r="A138" s="2" t="s">
         <v>271</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="139" ht="13.5" customHeight="1">
       <c r="A139" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="140" ht="13.5" customHeight="1">
+      <c r="A140" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="141" ht="13.5" customHeight="1">
+      <c r="A141" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="142" ht="13.5" customHeight="1">
+      <c r="A142" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+    </row>
+    <row r="143" ht="13.5" customHeight="1">
       <c r="A143" s="2" t="s">
         <v>279</v>
       </c>
@@ -3405,7 +2740,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" ht="13.5" customHeight="1">
       <c r="A144" s="2" t="s">
         <v>281</v>
       </c>
@@ -3413,7 +2748,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" ht="13.5" customHeight="1">
       <c r="A145" s="2" t="s">
         <v>283</v>
       </c>
@@ -3421,7 +2756,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" ht="13.5" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>285</v>
       </c>
@@ -3429,7 +2764,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" ht="13.5" customHeight="1">
       <c r="A147" s="2" t="s">
         <v>287</v>
       </c>
@@ -3437,7 +2772,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" ht="13.5" customHeight="1">
       <c r="A148" s="2" t="s">
         <v>289</v>
       </c>
@@ -3445,7 +2780,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" ht="13.5" customHeight="1">
       <c r="A149" s="2" t="s">
         <v>291</v>
       </c>
@@ -3453,7 +2788,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" ht="13.5" customHeight="1">
       <c r="A150" s="2" t="s">
         <v>293</v>
       </c>
@@ -3461,7 +2796,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" ht="13.5" customHeight="1">
       <c r="A151" s="2" t="s">
         <v>295</v>
       </c>
@@ -3469,7 +2804,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" ht="13.5" customHeight="1">
       <c r="A152" s="2" t="s">
         <v>297</v>
       </c>
@@ -3477,7 +2812,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="153" ht="24" customHeight="1" spans="1:2">
+    <row r="153" ht="13.5" customHeight="1">
       <c r="A153" s="2" t="s">
         <v>299</v>
       </c>
@@ -3485,7 +2820,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" ht="13.5" customHeight="1">
       <c r="A154" s="2" t="s">
         <v>301</v>
       </c>
@@ -3493,7 +2828,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" ht="13.5" customHeight="1">
       <c r="A155" s="2" t="s">
         <v>303</v>
       </c>
@@ -3501,7 +2836,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" ht="24.0" customHeight="1">
       <c r="A156" s="2" t="s">
         <v>305</v>
       </c>
@@ -3509,7 +2844,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" ht="13.5" customHeight="1">
       <c r="A157" s="2" t="s">
         <v>307</v>
       </c>
@@ -3517,7 +2852,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" ht="13.5" customHeight="1">
       <c r="A158" s="2" t="s">
         <v>309</v>
       </c>
@@ -3525,7 +2860,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" ht="13.5" customHeight="1">
       <c r="A159" s="2" t="s">
         <v>311</v>
       </c>
@@ -3533,7 +2868,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" ht="13.5" customHeight="1">
       <c r="A160" s="2" t="s">
         <v>313</v>
       </c>
@@ -3541,7 +2876,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" ht="13.5" customHeight="1">
       <c r="A161" s="2" t="s">
         <v>315</v>
       </c>
@@ -3549,7 +2884,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" ht="13.5" customHeight="1">
       <c r="A162" s="2" t="s">
         <v>317</v>
       </c>
@@ -3557,7 +2892,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" ht="13.5" customHeight="1">
       <c r="A163" s="2" t="s">
         <v>319</v>
       </c>
@@ -3565,7 +2900,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" ht="13.5" customHeight="1">
       <c r="A164" s="2" t="s">
         <v>321</v>
       </c>
@@ -3573,7 +2908,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" ht="13.5" customHeight="1">
       <c r="A165" s="2" t="s">
         <v>323</v>
       </c>
@@ -3581,7 +2916,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" ht="13.5" customHeight="1">
       <c r="A166" s="2" t="s">
         <v>325</v>
       </c>
@@ -3589,7 +2924,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" ht="13.5" customHeight="1">
       <c r="A167" s="2" t="s">
         <v>327</v>
       </c>
@@ -3597,7 +2932,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" ht="13.5" customHeight="1">
       <c r="A168" s="2" t="s">
         <v>329</v>
       </c>
@@ -3605,7 +2940,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" ht="13.5" customHeight="1">
       <c r="A169" s="2" t="s">
         <v>331</v>
       </c>
@@ -3613,7 +2948,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" ht="13.5" customHeight="1">
       <c r="A170" s="2" t="s">
         <v>333</v>
       </c>
@@ -3621,7 +2956,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" ht="13.5" customHeight="1">
       <c r="A171" s="2" t="s">
         <v>335</v>
       </c>
@@ -3629,7 +2964,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" ht="13.5" customHeight="1">
       <c r="A172" s="2" t="s">
         <v>337</v>
       </c>
@@ -3637,7 +2972,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" ht="13.5" customHeight="1">
       <c r="A173" s="2" t="s">
         <v>339</v>
       </c>
@@ -3645,7 +2980,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" ht="13.5" customHeight="1">
       <c r="A174" s="2" t="s">
         <v>341</v>
       </c>
@@ -3653,7 +2988,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" ht="13.5" customHeight="1">
       <c r="A175" s="2" t="s">
         <v>343</v>
       </c>
@@ -3661,7 +2996,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" ht="13.5" customHeight="1">
       <c r="A176" s="2" t="s">
         <v>345</v>
       </c>
@@ -3669,7 +3004,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" ht="13.5" customHeight="1">
       <c r="A177" s="2" t="s">
         <v>347</v>
       </c>
@@ -3677,7 +3012,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" ht="13.5" customHeight="1">
       <c r="A178" s="2" t="s">
         <v>349</v>
       </c>
@@ -3685,7 +3020,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" ht="13.5" customHeight="1">
       <c r="A179" s="2" t="s">
         <v>351</v>
       </c>
@@ -3693,7 +3028,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" ht="13.5" customHeight="1">
       <c r="A180" s="2" t="s">
         <v>353</v>
       </c>
@@ -3701,7 +3036,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" ht="13.5" customHeight="1">
       <c r="A181" s="2" t="s">
         <v>355</v>
       </c>
@@ -3709,7 +3044,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" ht="13.5" customHeight="1">
       <c r="A182" s="2" t="s">
         <v>357</v>
       </c>
@@ -3717,7 +3052,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" ht="13.5" customHeight="1">
       <c r="A183" s="2" t="s">
         <v>359</v>
       </c>
@@ -3725,7 +3060,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" ht="13.5" customHeight="1">
       <c r="A184" s="2" t="s">
         <v>361</v>
       </c>
@@ -3733,7 +3068,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" ht="13.5" customHeight="1">
       <c r="A185" s="2" t="s">
         <v>363</v>
       </c>
@@ -3741,7 +3076,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" ht="13.5" customHeight="1">
       <c r="A186" s="2" t="s">
         <v>365</v>
       </c>
@@ -3749,7 +3084,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" ht="13.5" customHeight="1">
       <c r="A187" s="2" t="s">
         <v>367</v>
       </c>
@@ -3757,7 +3092,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" ht="13.5" customHeight="1">
       <c r="A188" s="2" t="s">
         <v>369</v>
       </c>
@@ -3765,7 +3100,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" ht="13.5" customHeight="1">
       <c r="A189" s="2" t="s">
         <v>371</v>
       </c>
@@ -3773,7 +3108,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" ht="13.5" customHeight="1">
       <c r="A190" s="2" t="s">
         <v>373</v>
       </c>
@@ -3781,7 +3116,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" ht="13.5" customHeight="1">
       <c r="A191" s="2" t="s">
         <v>375</v>
       </c>
@@ -3789,7 +3124,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" ht="13.5" customHeight="1">
       <c r="A192" s="2" t="s">
         <v>377</v>
       </c>
@@ -3797,7 +3132,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" ht="13.5" customHeight="1">
       <c r="A193" s="2" t="s">
         <v>379</v>
       </c>
@@ -3805,7 +3140,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" ht="13.5" customHeight="1">
       <c r="A194" s="2" t="s">
         <v>381</v>
       </c>
@@ -3813,7 +3148,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" ht="13.5" customHeight="1">
       <c r="A195" s="2" t="s">
         <v>383</v>
       </c>
@@ -3821,7 +3156,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" ht="13.5" customHeight="1">
       <c r="A196" s="2" t="s">
         <v>385</v>
       </c>
@@ -3829,7 +3164,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" ht="13.5" customHeight="1">
       <c r="A197" s="2" t="s">
         <v>387</v>
       </c>
@@ -3837,7 +3172,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" ht="13.5" customHeight="1">
       <c r="A198" s="2" t="s">
         <v>389</v>
       </c>
@@ -3845,7 +3180,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" ht="13.5" customHeight="1">
       <c r="A199" s="2" t="s">
         <v>391</v>
       </c>
@@ -3853,7 +3188,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" ht="13.5" customHeight="1">
       <c r="A200" s="2" t="s">
         <v>393</v>
       </c>
@@ -3861,7 +3196,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" ht="13.5" customHeight="1">
       <c r="A201" s="2" t="s">
         <v>395</v>
       </c>
@@ -3869,42 +3204,42 @@
         <v>396</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" ht="13.5" customHeight="1">
       <c r="A202" s="2" t="s">
         <v>397</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="W202" t="s">
+    </row>
+    <row r="203" ht="13.5" customHeight="1">
+      <c r="A203" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="2" t="s">
+      <c r="B203" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B203" s="2" t="s">
+    </row>
+    <row r="204" ht="13.5" customHeight="1">
+      <c r="A204" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="2" t="s">
+      <c r="B204" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B204" s="2" t="s">
+    </row>
+    <row r="205" ht="13.5" customHeight="1">
+      <c r="A205" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="2" t="s">
+      <c r="B205" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="W205" s="4" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" ht="13.5" customHeight="1">
       <c r="A206" s="2" t="s">
         <v>406</v>
       </c>
@@ -3912,7 +3247,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" ht="13.5" customHeight="1">
       <c r="A207" s="2" t="s">
         <v>408</v>
       </c>
@@ -3920,7 +3255,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" ht="13.5" customHeight="1">
       <c r="A208" s="2" t="s">
         <v>410</v>
       </c>
@@ -3928,7 +3263,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" ht="13.5" customHeight="1">
       <c r="A209" s="2" t="s">
         <v>412</v>
       </c>
@@ -3936,23 +3271,23 @@
         <v>413</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="1" t="s">
+    <row r="210" ht="13.5" customHeight="1">
+      <c r="A210" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B210" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="1" t="s">
+    <row r="211" ht="13.5" customHeight="1">
+      <c r="A211" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" ht="13.5" customHeight="1">
       <c r="A212" s="2" t="s">
         <v>418</v>
       </c>
@@ -3960,49 +3295,860 @@
         <v>419</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="2" t="s">
+    <row r="213" ht="13.5" customHeight="1">
+      <c r="A213" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="2" t="s">
+    <row r="214" ht="13.5" customHeight="1">
+      <c r="A214" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="1" t="s">
         <v>423</v>
       </c>
     </row>
+    <row r="215" ht="13.5" customHeight="1">
+      <c r="A215" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="216" ht="13.5" customHeight="1">
+      <c r="A216" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="217" ht="13.5" customHeight="1">
+      <c r="A217" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="13.5" customHeight="1"/>
+    <row r="236" ht="13.5" customHeight="1"/>
+    <row r="237" ht="13.5" customHeight="1"/>
+    <row r="238" ht="13.5" customHeight="1"/>
+    <row r="239" ht="13.5" customHeight="1"/>
+    <row r="240" ht="13.5" customHeight="1"/>
+    <row r="241" ht="13.5" customHeight="1"/>
+    <row r="242" ht="13.5" customHeight="1"/>
+    <row r="243" ht="13.5" customHeight="1"/>
+    <row r="244" ht="13.5" customHeight="1"/>
+    <row r="245" ht="13.5" customHeight="1"/>
+    <row r="246" ht="13.5" customHeight="1"/>
+    <row r="247" ht="13.5" customHeight="1"/>
+    <row r="248" ht="13.5" customHeight="1"/>
+    <row r="249" ht="13.5" customHeight="1"/>
+    <row r="250" ht="13.5" customHeight="1"/>
+    <row r="251" ht="13.5" customHeight="1"/>
+    <row r="252" ht="13.5" customHeight="1"/>
+    <row r="253" ht="13.5" customHeight="1"/>
+    <row r="254" ht="13.5" customHeight="1"/>
+    <row r="255" ht="13.5" customHeight="1"/>
+    <row r="256" ht="13.5" customHeight="1"/>
+    <row r="257" ht="13.5" customHeight="1"/>
+    <row r="258" ht="13.5" customHeight="1"/>
+    <row r="259" ht="13.5" customHeight="1"/>
+    <row r="260" ht="13.5" customHeight="1"/>
+    <row r="261" ht="13.5" customHeight="1"/>
+    <row r="262" ht="13.5" customHeight="1"/>
+    <row r="263" ht="13.5" customHeight="1"/>
+    <row r="264" ht="13.5" customHeight="1"/>
+    <row r="265" ht="13.5" customHeight="1"/>
+    <row r="266" ht="13.5" customHeight="1"/>
+    <row r="267" ht="13.5" customHeight="1"/>
+    <row r="268" ht="13.5" customHeight="1"/>
+    <row r="269" ht="13.5" customHeight="1"/>
+    <row r="270" ht="13.5" customHeight="1"/>
+    <row r="271" ht="13.5" customHeight="1"/>
+    <row r="272" ht="13.5" customHeight="1"/>
+    <row r="273" ht="13.5" customHeight="1"/>
+    <row r="274" ht="13.5" customHeight="1"/>
+    <row r="275" ht="13.5" customHeight="1"/>
+    <row r="276" ht="13.5" customHeight="1"/>
+    <row r="277" ht="13.5" customHeight="1"/>
+    <row r="278" ht="13.5" customHeight="1"/>
+    <row r="279" ht="13.5" customHeight="1"/>
+    <row r="280" ht="13.5" customHeight="1"/>
+    <row r="281" ht="13.5" customHeight="1"/>
+    <row r="282" ht="13.5" customHeight="1"/>
+    <row r="283" ht="13.5" customHeight="1"/>
+    <row r="284" ht="13.5" customHeight="1"/>
+    <row r="285" ht="13.5" customHeight="1"/>
+    <row r="286" ht="13.5" customHeight="1"/>
+    <row r="287" ht="13.5" customHeight="1"/>
+    <row r="288" ht="13.5" customHeight="1"/>
+    <row r="289" ht="13.5" customHeight="1"/>
+    <row r="290" ht="13.5" customHeight="1"/>
+    <row r="291" ht="13.5" customHeight="1"/>
+    <row r="292" ht="13.5" customHeight="1"/>
+    <row r="293" ht="13.5" customHeight="1"/>
+    <row r="294" ht="13.5" customHeight="1"/>
+    <row r="295" ht="13.5" customHeight="1"/>
+    <row r="296" ht="13.5" customHeight="1"/>
+    <row r="297" ht="13.5" customHeight="1"/>
+    <row r="298" ht="13.5" customHeight="1"/>
+    <row r="299" ht="13.5" customHeight="1"/>
+    <row r="300" ht="13.5" customHeight="1"/>
+    <row r="301" ht="13.5" customHeight="1"/>
+    <row r="302" ht="13.5" customHeight="1"/>
+    <row r="303" ht="13.5" customHeight="1"/>
+    <row r="304" ht="13.5" customHeight="1"/>
+    <row r="305" ht="13.5" customHeight="1"/>
+    <row r="306" ht="13.5" customHeight="1"/>
+    <row r="307" ht="13.5" customHeight="1"/>
+    <row r="308" ht="13.5" customHeight="1"/>
+    <row r="309" ht="13.5" customHeight="1"/>
+    <row r="310" ht="13.5" customHeight="1"/>
+    <row r="311" ht="13.5" customHeight="1"/>
+    <row r="312" ht="13.5" customHeight="1"/>
+    <row r="313" ht="13.5" customHeight="1"/>
+    <row r="314" ht="13.5" customHeight="1"/>
+    <row r="315" ht="13.5" customHeight="1"/>
+    <row r="316" ht="13.5" customHeight="1"/>
+    <row r="317" ht="13.5" customHeight="1"/>
+    <row r="318" ht="13.5" customHeight="1"/>
+    <row r="319" ht="13.5" customHeight="1"/>
+    <row r="320" ht="13.5" customHeight="1"/>
+    <row r="321" ht="13.5" customHeight="1"/>
+    <row r="322" ht="13.5" customHeight="1"/>
+    <row r="323" ht="13.5" customHeight="1"/>
+    <row r="324" ht="13.5" customHeight="1"/>
+    <row r="325" ht="13.5" customHeight="1"/>
+    <row r="326" ht="13.5" customHeight="1"/>
+    <row r="327" ht="13.5" customHeight="1"/>
+    <row r="328" ht="13.5" customHeight="1"/>
+    <row r="329" ht="13.5" customHeight="1"/>
+    <row r="330" ht="13.5" customHeight="1"/>
+    <row r="331" ht="13.5" customHeight="1"/>
+    <row r="332" ht="13.5" customHeight="1"/>
+    <row r="333" ht="13.5" customHeight="1"/>
+    <row r="334" ht="13.5" customHeight="1"/>
+    <row r="335" ht="13.5" customHeight="1"/>
+    <row r="336" ht="13.5" customHeight="1"/>
+    <row r="337" ht="13.5" customHeight="1"/>
+    <row r="338" ht="13.5" customHeight="1"/>
+    <row r="339" ht="13.5" customHeight="1"/>
+    <row r="340" ht="13.5" customHeight="1"/>
+    <row r="341" ht="13.5" customHeight="1"/>
+    <row r="342" ht="13.5" customHeight="1"/>
+    <row r="343" ht="13.5" customHeight="1"/>
+    <row r="344" ht="13.5" customHeight="1"/>
+    <row r="345" ht="13.5" customHeight="1"/>
+    <row r="346" ht="13.5" customHeight="1"/>
+    <row r="347" ht="13.5" customHeight="1"/>
+    <row r="348" ht="13.5" customHeight="1"/>
+    <row r="349" ht="13.5" customHeight="1"/>
+    <row r="350" ht="13.5" customHeight="1"/>
+    <row r="351" ht="13.5" customHeight="1"/>
+    <row r="352" ht="13.5" customHeight="1"/>
+    <row r="353" ht="13.5" customHeight="1"/>
+    <row r="354" ht="13.5" customHeight="1"/>
+    <row r="355" ht="13.5" customHeight="1"/>
+    <row r="356" ht="13.5" customHeight="1"/>
+    <row r="357" ht="13.5" customHeight="1"/>
+    <row r="358" ht="13.5" customHeight="1"/>
+    <row r="359" ht="13.5" customHeight="1"/>
+    <row r="360" ht="13.5" customHeight="1"/>
+    <row r="361" ht="13.5" customHeight="1"/>
+    <row r="362" ht="13.5" customHeight="1"/>
+    <row r="363" ht="13.5" customHeight="1"/>
+    <row r="364" ht="13.5" customHeight="1"/>
+    <row r="365" ht="13.5" customHeight="1"/>
+    <row r="366" ht="13.5" customHeight="1"/>
+    <row r="367" ht="13.5" customHeight="1"/>
+    <row r="368" ht="13.5" customHeight="1"/>
+    <row r="369" ht="13.5" customHeight="1"/>
+    <row r="370" ht="13.5" customHeight="1"/>
+    <row r="371" ht="13.5" customHeight="1"/>
+    <row r="372" ht="13.5" customHeight="1"/>
+    <row r="373" ht="13.5" customHeight="1"/>
+    <row r="374" ht="13.5" customHeight="1"/>
+    <row r="375" ht="13.5" customHeight="1"/>
+    <row r="376" ht="13.5" customHeight="1"/>
+    <row r="377" ht="13.5" customHeight="1"/>
+    <row r="378" ht="13.5" customHeight="1"/>
+    <row r="379" ht="13.5" customHeight="1"/>
+    <row r="380" ht="13.5" customHeight="1"/>
+    <row r="381" ht="13.5" customHeight="1"/>
+    <row r="382" ht="13.5" customHeight="1"/>
+    <row r="383" ht="13.5" customHeight="1"/>
+    <row r="384" ht="13.5" customHeight="1"/>
+    <row r="385" ht="13.5" customHeight="1"/>
+    <row r="386" ht="13.5" customHeight="1"/>
+    <row r="387" ht="13.5" customHeight="1"/>
+    <row r="388" ht="13.5" customHeight="1"/>
+    <row r="389" ht="13.5" customHeight="1"/>
+    <row r="390" ht="13.5" customHeight="1"/>
+    <row r="391" ht="13.5" customHeight="1"/>
+    <row r="392" ht="13.5" customHeight="1"/>
+    <row r="393" ht="13.5" customHeight="1"/>
+    <row r="394" ht="13.5" customHeight="1"/>
+    <row r="395" ht="13.5" customHeight="1"/>
+    <row r="396" ht="13.5" customHeight="1"/>
+    <row r="397" ht="13.5" customHeight="1"/>
+    <row r="398" ht="13.5" customHeight="1"/>
+    <row r="399" ht="13.5" customHeight="1"/>
+    <row r="400" ht="13.5" customHeight="1"/>
+    <row r="401" ht="13.5" customHeight="1"/>
+    <row r="402" ht="13.5" customHeight="1"/>
+    <row r="403" ht="13.5" customHeight="1"/>
+    <row r="404" ht="13.5" customHeight="1"/>
+    <row r="405" ht="13.5" customHeight="1"/>
+    <row r="406" ht="13.5" customHeight="1"/>
+    <row r="407" ht="13.5" customHeight="1"/>
+    <row r="408" ht="13.5" customHeight="1"/>
+    <row r="409" ht="13.5" customHeight="1"/>
+    <row r="410" ht="13.5" customHeight="1"/>
+    <row r="411" ht="13.5" customHeight="1"/>
+    <row r="412" ht="13.5" customHeight="1"/>
+    <row r="413" ht="13.5" customHeight="1"/>
+    <row r="414" ht="13.5" customHeight="1"/>
+    <row r="415" ht="13.5" customHeight="1"/>
+    <row r="416" ht="13.5" customHeight="1"/>
+    <row r="417" ht="13.5" customHeight="1"/>
+    <row r="418" ht="13.5" customHeight="1"/>
+    <row r="419" ht="13.5" customHeight="1"/>
+    <row r="420" ht="13.5" customHeight="1"/>
+    <row r="421" ht="13.5" customHeight="1"/>
+    <row r="422" ht="13.5" customHeight="1"/>
+    <row r="423" ht="13.5" customHeight="1"/>
+    <row r="424" ht="13.5" customHeight="1"/>
+    <row r="425" ht="13.5" customHeight="1"/>
+    <row r="426" ht="13.5" customHeight="1"/>
+    <row r="427" ht="13.5" customHeight="1"/>
+    <row r="428" ht="13.5" customHeight="1"/>
+    <row r="429" ht="13.5" customHeight="1"/>
+    <row r="430" ht="13.5" customHeight="1"/>
+    <row r="431" ht="13.5" customHeight="1"/>
+    <row r="432" ht="13.5" customHeight="1"/>
+    <row r="433" ht="13.5" customHeight="1"/>
+    <row r="434" ht="13.5" customHeight="1"/>
+    <row r="435" ht="13.5" customHeight="1"/>
+    <row r="436" ht="13.5" customHeight="1"/>
+    <row r="437" ht="13.5" customHeight="1"/>
+    <row r="438" ht="13.5" customHeight="1"/>
+    <row r="439" ht="13.5" customHeight="1"/>
+    <row r="440" ht="13.5" customHeight="1"/>
+    <row r="441" ht="13.5" customHeight="1"/>
+    <row r="442" ht="13.5" customHeight="1"/>
+    <row r="443" ht="13.5" customHeight="1"/>
+    <row r="444" ht="13.5" customHeight="1"/>
+    <row r="445" ht="13.5" customHeight="1"/>
+    <row r="446" ht="13.5" customHeight="1"/>
+    <row r="447" ht="13.5" customHeight="1"/>
+    <row r="448" ht="13.5" customHeight="1"/>
+    <row r="449" ht="13.5" customHeight="1"/>
+    <row r="450" ht="13.5" customHeight="1"/>
+    <row r="451" ht="13.5" customHeight="1"/>
+    <row r="452" ht="13.5" customHeight="1"/>
+    <row r="453" ht="13.5" customHeight="1"/>
+    <row r="454" ht="13.5" customHeight="1"/>
+    <row r="455" ht="13.5" customHeight="1"/>
+    <row r="456" ht="13.5" customHeight="1"/>
+    <row r="457" ht="13.5" customHeight="1"/>
+    <row r="458" ht="13.5" customHeight="1"/>
+    <row r="459" ht="13.5" customHeight="1"/>
+    <row r="460" ht="13.5" customHeight="1"/>
+    <row r="461" ht="13.5" customHeight="1"/>
+    <row r="462" ht="13.5" customHeight="1"/>
+    <row r="463" ht="13.5" customHeight="1"/>
+    <row r="464" ht="13.5" customHeight="1"/>
+    <row r="465" ht="13.5" customHeight="1"/>
+    <row r="466" ht="13.5" customHeight="1"/>
+    <row r="467" ht="13.5" customHeight="1"/>
+    <row r="468" ht="13.5" customHeight="1"/>
+    <row r="469" ht="13.5" customHeight="1"/>
+    <row r="470" ht="13.5" customHeight="1"/>
+    <row r="471" ht="13.5" customHeight="1"/>
+    <row r="472" ht="13.5" customHeight="1"/>
+    <row r="473" ht="13.5" customHeight="1"/>
+    <row r="474" ht="13.5" customHeight="1"/>
+    <row r="475" ht="13.5" customHeight="1"/>
+    <row r="476" ht="13.5" customHeight="1"/>
+    <row r="477" ht="13.5" customHeight="1"/>
+    <row r="478" ht="13.5" customHeight="1"/>
+    <row r="479" ht="13.5" customHeight="1"/>
+    <row r="480" ht="13.5" customHeight="1"/>
+    <row r="481" ht="13.5" customHeight="1"/>
+    <row r="482" ht="13.5" customHeight="1"/>
+    <row r="483" ht="13.5" customHeight="1"/>
+    <row r="484" ht="13.5" customHeight="1"/>
+    <row r="485" ht="13.5" customHeight="1"/>
+    <row r="486" ht="13.5" customHeight="1"/>
+    <row r="487" ht="13.5" customHeight="1"/>
+    <row r="488" ht="13.5" customHeight="1"/>
+    <row r="489" ht="13.5" customHeight="1"/>
+    <row r="490" ht="13.5" customHeight="1"/>
+    <row r="491" ht="13.5" customHeight="1"/>
+    <row r="492" ht="13.5" customHeight="1"/>
+    <row r="493" ht="13.5" customHeight="1"/>
+    <row r="494" ht="13.5" customHeight="1"/>
+    <row r="495" ht="13.5" customHeight="1"/>
+    <row r="496" ht="13.5" customHeight="1"/>
+    <row r="497" ht="13.5" customHeight="1"/>
+    <row r="498" ht="13.5" customHeight="1"/>
+    <row r="499" ht="13.5" customHeight="1"/>
+    <row r="500" ht="13.5" customHeight="1"/>
+    <row r="501" ht="13.5" customHeight="1"/>
+    <row r="502" ht="13.5" customHeight="1"/>
+    <row r="503" ht="13.5" customHeight="1"/>
+    <row r="504" ht="13.5" customHeight="1"/>
+    <row r="505" ht="13.5" customHeight="1"/>
+    <row r="506" ht="13.5" customHeight="1"/>
+    <row r="507" ht="13.5" customHeight="1"/>
+    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="509" ht="13.5" customHeight="1"/>
+    <row r="510" ht="13.5" customHeight="1"/>
+    <row r="511" ht="13.5" customHeight="1"/>
+    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="514" ht="13.5" customHeight="1"/>
+    <row r="515" ht="13.5" customHeight="1"/>
+    <row r="516" ht="13.5" customHeight="1"/>
+    <row r="517" ht="13.5" customHeight="1"/>
+    <row r="518" ht="13.5" customHeight="1"/>
+    <row r="519" ht="13.5" customHeight="1"/>
+    <row r="520" ht="13.5" customHeight="1"/>
+    <row r="521" ht="13.5" customHeight="1"/>
+    <row r="522" ht="13.5" customHeight="1"/>
+    <row r="523" ht="13.5" customHeight="1"/>
+    <row r="524" ht="13.5" customHeight="1"/>
+    <row r="525" ht="13.5" customHeight="1"/>
+    <row r="526" ht="13.5" customHeight="1"/>
+    <row r="527" ht="13.5" customHeight="1"/>
+    <row r="528" ht="13.5" customHeight="1"/>
+    <row r="529" ht="13.5" customHeight="1"/>
+    <row r="530" ht="13.5" customHeight="1"/>
+    <row r="531" ht="13.5" customHeight="1"/>
+    <row r="532" ht="13.5" customHeight="1"/>
+    <row r="533" ht="13.5" customHeight="1"/>
+    <row r="534" ht="13.5" customHeight="1"/>
+    <row r="535" ht="13.5" customHeight="1"/>
+    <row r="536" ht="13.5" customHeight="1"/>
+    <row r="537" ht="13.5" customHeight="1"/>
+    <row r="538" ht="13.5" customHeight="1"/>
+    <row r="539" ht="13.5" customHeight="1"/>
+    <row r="540" ht="13.5" customHeight="1"/>
+    <row r="541" ht="13.5" customHeight="1"/>
+    <row r="542" ht="13.5" customHeight="1"/>
+    <row r="543" ht="13.5" customHeight="1"/>
+    <row r="544" ht="13.5" customHeight="1"/>
+    <row r="545" ht="13.5" customHeight="1"/>
+    <row r="546" ht="13.5" customHeight="1"/>
+    <row r="547" ht="13.5" customHeight="1"/>
+    <row r="548" ht="13.5" customHeight="1"/>
+    <row r="549" ht="13.5" customHeight="1"/>
+    <row r="550" ht="13.5" customHeight="1"/>
+    <row r="551" ht="13.5" customHeight="1"/>
+    <row r="552" ht="13.5" customHeight="1"/>
+    <row r="553" ht="13.5" customHeight="1"/>
+    <row r="554" ht="13.5" customHeight="1"/>
+    <row r="555" ht="13.5" customHeight="1"/>
+    <row r="556" ht="13.5" customHeight="1"/>
+    <row r="557" ht="13.5" customHeight="1"/>
+    <row r="558" ht="13.5" customHeight="1"/>
+    <row r="559" ht="13.5" customHeight="1"/>
+    <row r="560" ht="13.5" customHeight="1"/>
+    <row r="561" ht="13.5" customHeight="1"/>
+    <row r="562" ht="13.5" customHeight="1"/>
+    <row r="563" ht="13.5" customHeight="1"/>
+    <row r="564" ht="13.5" customHeight="1"/>
+    <row r="565" ht="13.5" customHeight="1"/>
+    <row r="566" ht="13.5" customHeight="1"/>
+    <row r="567" ht="13.5" customHeight="1"/>
+    <row r="568" ht="13.5" customHeight="1"/>
+    <row r="569" ht="13.5" customHeight="1"/>
+    <row r="570" ht="13.5" customHeight="1"/>
+    <row r="571" ht="13.5" customHeight="1"/>
+    <row r="572" ht="13.5" customHeight="1"/>
+    <row r="573" ht="13.5" customHeight="1"/>
+    <row r="574" ht="13.5" customHeight="1"/>
+    <row r="575" ht="13.5" customHeight="1"/>
+    <row r="576" ht="13.5" customHeight="1"/>
+    <row r="577" ht="13.5" customHeight="1"/>
+    <row r="578" ht="13.5" customHeight="1"/>
+    <row r="579" ht="13.5" customHeight="1"/>
+    <row r="580" ht="13.5" customHeight="1"/>
+    <row r="581" ht="13.5" customHeight="1"/>
+    <row r="582" ht="13.5" customHeight="1"/>
+    <row r="583" ht="13.5" customHeight="1"/>
+    <row r="584" ht="13.5" customHeight="1"/>
+    <row r="585" ht="13.5" customHeight="1"/>
+    <row r="586" ht="13.5" customHeight="1"/>
+    <row r="587" ht="13.5" customHeight="1"/>
+    <row r="588" ht="13.5" customHeight="1"/>
+    <row r="589" ht="13.5" customHeight="1"/>
+    <row r="590" ht="13.5" customHeight="1"/>
+    <row r="591" ht="13.5" customHeight="1"/>
+    <row r="592" ht="13.5" customHeight="1"/>
+    <row r="593" ht="13.5" customHeight="1"/>
+    <row r="594" ht="13.5" customHeight="1"/>
+    <row r="595" ht="13.5" customHeight="1"/>
+    <row r="596" ht="13.5" customHeight="1"/>
+    <row r="597" ht="13.5" customHeight="1"/>
+    <row r="598" ht="13.5" customHeight="1"/>
+    <row r="599" ht="13.5" customHeight="1"/>
+    <row r="600" ht="13.5" customHeight="1"/>
+    <row r="601" ht="13.5" customHeight="1"/>
+    <row r="602" ht="13.5" customHeight="1"/>
+    <row r="603" ht="13.5" customHeight="1"/>
+    <row r="604" ht="13.5" customHeight="1"/>
+    <row r="605" ht="13.5" customHeight="1"/>
+    <row r="606" ht="13.5" customHeight="1"/>
+    <row r="607" ht="13.5" customHeight="1"/>
+    <row r="608" ht="13.5" customHeight="1"/>
+    <row r="609" ht="13.5" customHeight="1"/>
+    <row r="610" ht="13.5" customHeight="1"/>
+    <row r="611" ht="13.5" customHeight="1"/>
+    <row r="612" ht="13.5" customHeight="1"/>
+    <row r="613" ht="13.5" customHeight="1"/>
+    <row r="614" ht="13.5" customHeight="1"/>
+    <row r="615" ht="13.5" customHeight="1"/>
+    <row r="616" ht="13.5" customHeight="1"/>
+    <row r="617" ht="13.5" customHeight="1"/>
+    <row r="618" ht="13.5" customHeight="1"/>
+    <row r="619" ht="13.5" customHeight="1"/>
+    <row r="620" ht="13.5" customHeight="1"/>
+    <row r="621" ht="13.5" customHeight="1"/>
+    <row r="622" ht="13.5" customHeight="1"/>
+    <row r="623" ht="13.5" customHeight="1"/>
+    <row r="624" ht="13.5" customHeight="1"/>
+    <row r="625" ht="13.5" customHeight="1"/>
+    <row r="626" ht="13.5" customHeight="1"/>
+    <row r="627" ht="13.5" customHeight="1"/>
+    <row r="628" ht="13.5" customHeight="1"/>
+    <row r="629" ht="13.5" customHeight="1"/>
+    <row r="630" ht="13.5" customHeight="1"/>
+    <row r="631" ht="13.5" customHeight="1"/>
+    <row r="632" ht="13.5" customHeight="1"/>
+    <row r="633" ht="13.5" customHeight="1"/>
+    <row r="634" ht="13.5" customHeight="1"/>
+    <row r="635" ht="13.5" customHeight="1"/>
+    <row r="636" ht="13.5" customHeight="1"/>
+    <row r="637" ht="13.5" customHeight="1"/>
+    <row r="638" ht="13.5" customHeight="1"/>
+    <row r="639" ht="13.5" customHeight="1"/>
+    <row r="640" ht="13.5" customHeight="1"/>
+    <row r="641" ht="13.5" customHeight="1"/>
+    <row r="642" ht="13.5" customHeight="1"/>
+    <row r="643" ht="13.5" customHeight="1"/>
+    <row r="644" ht="13.5" customHeight="1"/>
+    <row r="645" ht="13.5" customHeight="1"/>
+    <row r="646" ht="13.5" customHeight="1"/>
+    <row r="647" ht="13.5" customHeight="1"/>
+    <row r="648" ht="13.5" customHeight="1"/>
+    <row r="649" ht="13.5" customHeight="1"/>
+    <row r="650" ht="13.5" customHeight="1"/>
+    <row r="651" ht="13.5" customHeight="1"/>
+    <row r="652" ht="13.5" customHeight="1"/>
+    <row r="653" ht="13.5" customHeight="1"/>
+    <row r="654" ht="13.5" customHeight="1"/>
+    <row r="655" ht="13.5" customHeight="1"/>
+    <row r="656" ht="13.5" customHeight="1"/>
+    <row r="657" ht="13.5" customHeight="1"/>
+    <row r="658" ht="13.5" customHeight="1"/>
+    <row r="659" ht="13.5" customHeight="1"/>
+    <row r="660" ht="13.5" customHeight="1"/>
+    <row r="661" ht="13.5" customHeight="1"/>
+    <row r="662" ht="13.5" customHeight="1"/>
+    <row r="663" ht="13.5" customHeight="1"/>
+    <row r="664" ht="13.5" customHeight="1"/>
+    <row r="665" ht="13.5" customHeight="1"/>
+    <row r="666" ht="13.5" customHeight="1"/>
+    <row r="667" ht="13.5" customHeight="1"/>
+    <row r="668" ht="13.5" customHeight="1"/>
+    <row r="669" ht="13.5" customHeight="1"/>
+    <row r="670" ht="13.5" customHeight="1"/>
+    <row r="671" ht="13.5" customHeight="1"/>
+    <row r="672" ht="13.5" customHeight="1"/>
+    <row r="673" ht="13.5" customHeight="1"/>
+    <row r="674" ht="13.5" customHeight="1"/>
+    <row r="675" ht="13.5" customHeight="1"/>
+    <row r="676" ht="13.5" customHeight="1"/>
+    <row r="677" ht="13.5" customHeight="1"/>
+    <row r="678" ht="13.5" customHeight="1"/>
+    <row r="679" ht="13.5" customHeight="1"/>
+    <row r="680" ht="13.5" customHeight="1"/>
+    <row r="681" ht="13.5" customHeight="1"/>
+    <row r="682" ht="13.5" customHeight="1"/>
+    <row r="683" ht="13.5" customHeight="1"/>
+    <row r="684" ht="13.5" customHeight="1"/>
+    <row r="685" ht="13.5" customHeight="1"/>
+    <row r="686" ht="13.5" customHeight="1"/>
+    <row r="687" ht="13.5" customHeight="1"/>
+    <row r="688" ht="13.5" customHeight="1"/>
+    <row r="689" ht="13.5" customHeight="1"/>
+    <row r="690" ht="13.5" customHeight="1"/>
+    <row r="691" ht="13.5" customHeight="1"/>
+    <row r="692" ht="13.5" customHeight="1"/>
+    <row r="693" ht="13.5" customHeight="1"/>
+    <row r="694" ht="13.5" customHeight="1"/>
+    <row r="695" ht="13.5" customHeight="1"/>
+    <row r="696" ht="13.5" customHeight="1"/>
+    <row r="697" ht="13.5" customHeight="1"/>
+    <row r="698" ht="13.5" customHeight="1"/>
+    <row r="699" ht="13.5" customHeight="1"/>
+    <row r="700" ht="13.5" customHeight="1"/>
+    <row r="701" ht="13.5" customHeight="1"/>
+    <row r="702" ht="13.5" customHeight="1"/>
+    <row r="703" ht="13.5" customHeight="1"/>
+    <row r="704" ht="13.5" customHeight="1"/>
+    <row r="705" ht="13.5" customHeight="1"/>
+    <row r="706" ht="13.5" customHeight="1"/>
+    <row r="707" ht="13.5" customHeight="1"/>
+    <row r="708" ht="13.5" customHeight="1"/>
+    <row r="709" ht="13.5" customHeight="1"/>
+    <row r="710" ht="13.5" customHeight="1"/>
+    <row r="711" ht="13.5" customHeight="1"/>
+    <row r="712" ht="13.5" customHeight="1"/>
+    <row r="713" ht="13.5" customHeight="1"/>
+    <row r="714" ht="13.5" customHeight="1"/>
+    <row r="715" ht="13.5" customHeight="1"/>
+    <row r="716" ht="13.5" customHeight="1"/>
+    <row r="717" ht="13.5" customHeight="1"/>
+    <row r="718" ht="13.5" customHeight="1"/>
+    <row r="719" ht="13.5" customHeight="1"/>
+    <row r="720" ht="13.5" customHeight="1"/>
+    <row r="721" ht="13.5" customHeight="1"/>
+    <row r="722" ht="13.5" customHeight="1"/>
+    <row r="723" ht="13.5" customHeight="1"/>
+    <row r="724" ht="13.5" customHeight="1"/>
+    <row r="725" ht="13.5" customHeight="1"/>
+    <row r="726" ht="13.5" customHeight="1"/>
+    <row r="727" ht="13.5" customHeight="1"/>
+    <row r="728" ht="13.5" customHeight="1"/>
+    <row r="729" ht="13.5" customHeight="1"/>
+    <row r="730" ht="13.5" customHeight="1"/>
+    <row r="731" ht="13.5" customHeight="1"/>
+    <row r="732" ht="13.5" customHeight="1"/>
+    <row r="733" ht="13.5" customHeight="1"/>
+    <row r="734" ht="13.5" customHeight="1"/>
+    <row r="735" ht="13.5" customHeight="1"/>
+    <row r="736" ht="13.5" customHeight="1"/>
+    <row r="737" ht="13.5" customHeight="1"/>
+    <row r="738" ht="13.5" customHeight="1"/>
+    <row r="739" ht="13.5" customHeight="1"/>
+    <row r="740" ht="13.5" customHeight="1"/>
+    <row r="741" ht="13.5" customHeight="1"/>
+    <row r="742" ht="13.5" customHeight="1"/>
+    <row r="743" ht="13.5" customHeight="1"/>
+    <row r="744" ht="13.5" customHeight="1"/>
+    <row r="745" ht="13.5" customHeight="1"/>
+    <row r="746" ht="13.5" customHeight="1"/>
+    <row r="747" ht="13.5" customHeight="1"/>
+    <row r="748" ht="13.5" customHeight="1"/>
+    <row r="749" ht="13.5" customHeight="1"/>
+    <row r="750" ht="13.5" customHeight="1"/>
+    <row r="751" ht="13.5" customHeight="1"/>
+    <row r="752" ht="13.5" customHeight="1"/>
+    <row r="753" ht="13.5" customHeight="1"/>
+    <row r="754" ht="13.5" customHeight="1"/>
+    <row r="755" ht="13.5" customHeight="1"/>
+    <row r="756" ht="13.5" customHeight="1"/>
+    <row r="757" ht="13.5" customHeight="1"/>
+    <row r="758" ht="13.5" customHeight="1"/>
+    <row r="759" ht="13.5" customHeight="1"/>
+    <row r="760" ht="13.5" customHeight="1"/>
+    <row r="761" ht="13.5" customHeight="1"/>
+    <row r="762" ht="13.5" customHeight="1"/>
+    <row r="763" ht="13.5" customHeight="1"/>
+    <row r="764" ht="13.5" customHeight="1"/>
+    <row r="765" ht="13.5" customHeight="1"/>
+    <row r="766" ht="13.5" customHeight="1"/>
+    <row r="767" ht="13.5" customHeight="1"/>
+    <row r="768" ht="13.5" customHeight="1"/>
+    <row r="769" ht="13.5" customHeight="1"/>
+    <row r="770" ht="13.5" customHeight="1"/>
+    <row r="771" ht="13.5" customHeight="1"/>
+    <row r="772" ht="13.5" customHeight="1"/>
+    <row r="773" ht="13.5" customHeight="1"/>
+    <row r="774" ht="13.5" customHeight="1"/>
+    <row r="775" ht="13.5" customHeight="1"/>
+    <row r="776" ht="13.5" customHeight="1"/>
+    <row r="777" ht="13.5" customHeight="1"/>
+    <row r="778" ht="13.5" customHeight="1"/>
+    <row r="779" ht="13.5" customHeight="1"/>
+    <row r="780" ht="13.5" customHeight="1"/>
+    <row r="781" ht="13.5" customHeight="1"/>
+    <row r="782" ht="13.5" customHeight="1"/>
+    <row r="783" ht="13.5" customHeight="1"/>
+    <row r="784" ht="13.5" customHeight="1"/>
+    <row r="785" ht="13.5" customHeight="1"/>
+    <row r="786" ht="13.5" customHeight="1"/>
+    <row r="787" ht="13.5" customHeight="1"/>
+    <row r="788" ht="13.5" customHeight="1"/>
+    <row r="789" ht="13.5" customHeight="1"/>
+    <row r="790" ht="13.5" customHeight="1"/>
+    <row r="791" ht="13.5" customHeight="1"/>
+    <row r="792" ht="13.5" customHeight="1"/>
+    <row r="793" ht="13.5" customHeight="1"/>
+    <row r="794" ht="13.5" customHeight="1"/>
+    <row r="795" ht="13.5" customHeight="1"/>
+    <row r="796" ht="13.5" customHeight="1"/>
+    <row r="797" ht="13.5" customHeight="1"/>
+    <row r="798" ht="13.5" customHeight="1"/>
+    <row r="799" ht="13.5" customHeight="1"/>
+    <row r="800" ht="13.5" customHeight="1"/>
+    <row r="801" ht="13.5" customHeight="1"/>
+    <row r="802" ht="13.5" customHeight="1"/>
+    <row r="803" ht="13.5" customHeight="1"/>
+    <row r="804" ht="13.5" customHeight="1"/>
+    <row r="805" ht="13.5" customHeight="1"/>
+    <row r="806" ht="13.5" customHeight="1"/>
+    <row r="807" ht="13.5" customHeight="1"/>
+    <row r="808" ht="13.5" customHeight="1"/>
+    <row r="809" ht="13.5" customHeight="1"/>
+    <row r="810" ht="13.5" customHeight="1"/>
+    <row r="811" ht="13.5" customHeight="1"/>
+    <row r="812" ht="13.5" customHeight="1"/>
+    <row r="813" ht="13.5" customHeight="1"/>
+    <row r="814" ht="13.5" customHeight="1"/>
+    <row r="815" ht="13.5" customHeight="1"/>
+    <row r="816" ht="13.5" customHeight="1"/>
+    <row r="817" ht="13.5" customHeight="1"/>
+    <row r="818" ht="13.5" customHeight="1"/>
+    <row r="819" ht="13.5" customHeight="1"/>
+    <row r="820" ht="13.5" customHeight="1"/>
+    <row r="821" ht="13.5" customHeight="1"/>
+    <row r="822" ht="13.5" customHeight="1"/>
+    <row r="823" ht="13.5" customHeight="1"/>
+    <row r="824" ht="13.5" customHeight="1"/>
+    <row r="825" ht="13.5" customHeight="1"/>
+    <row r="826" ht="13.5" customHeight="1"/>
+    <row r="827" ht="13.5" customHeight="1"/>
+    <row r="828" ht="13.5" customHeight="1"/>
+    <row r="829" ht="13.5" customHeight="1"/>
+    <row r="830" ht="13.5" customHeight="1"/>
+    <row r="831" ht="13.5" customHeight="1"/>
+    <row r="832" ht="13.5" customHeight="1"/>
+    <row r="833" ht="13.5" customHeight="1"/>
+    <row r="834" ht="13.5" customHeight="1"/>
+    <row r="835" ht="13.5" customHeight="1"/>
+    <row r="836" ht="13.5" customHeight="1"/>
+    <row r="837" ht="13.5" customHeight="1"/>
+    <row r="838" ht="13.5" customHeight="1"/>
+    <row r="839" ht="13.5" customHeight="1"/>
+    <row r="840" ht="13.5" customHeight="1"/>
+    <row r="841" ht="13.5" customHeight="1"/>
+    <row r="842" ht="13.5" customHeight="1"/>
+    <row r="843" ht="13.5" customHeight="1"/>
+    <row r="844" ht="13.5" customHeight="1"/>
+    <row r="845" ht="13.5" customHeight="1"/>
+    <row r="846" ht="13.5" customHeight="1"/>
+    <row r="847" ht="13.5" customHeight="1"/>
+    <row r="848" ht="13.5" customHeight="1"/>
+    <row r="849" ht="13.5" customHeight="1"/>
+    <row r="850" ht="13.5" customHeight="1"/>
+    <row r="851" ht="13.5" customHeight="1"/>
+    <row r="852" ht="13.5" customHeight="1"/>
+    <row r="853" ht="13.5" customHeight="1"/>
+    <row r="854" ht="13.5" customHeight="1"/>
+    <row r="855" ht="13.5" customHeight="1"/>
+    <row r="856" ht="13.5" customHeight="1"/>
+    <row r="857" ht="13.5" customHeight="1"/>
+    <row r="858" ht="13.5" customHeight="1"/>
+    <row r="859" ht="13.5" customHeight="1"/>
+    <row r="860" ht="13.5" customHeight="1"/>
+    <row r="861" ht="13.5" customHeight="1"/>
+    <row r="862" ht="13.5" customHeight="1"/>
+    <row r="863" ht="13.5" customHeight="1"/>
+    <row r="864" ht="13.5" customHeight="1"/>
+    <row r="865" ht="13.5" customHeight="1"/>
+    <row r="866" ht="13.5" customHeight="1"/>
+    <row r="867" ht="13.5" customHeight="1"/>
+    <row r="868" ht="13.5" customHeight="1"/>
+    <row r="869" ht="13.5" customHeight="1"/>
+    <row r="870" ht="13.5" customHeight="1"/>
+    <row r="871" ht="13.5" customHeight="1"/>
+    <row r="872" ht="13.5" customHeight="1"/>
+    <row r="873" ht="13.5" customHeight="1"/>
+    <row r="874" ht="13.5" customHeight="1"/>
+    <row r="875" ht="13.5" customHeight="1"/>
+    <row r="876" ht="13.5" customHeight="1"/>
+    <row r="877" ht="13.5" customHeight="1"/>
+    <row r="878" ht="13.5" customHeight="1"/>
+    <row r="879" ht="13.5" customHeight="1"/>
+    <row r="880" ht="13.5" customHeight="1"/>
+    <row r="881" ht="13.5" customHeight="1"/>
+    <row r="882" ht="13.5" customHeight="1"/>
+    <row r="883" ht="13.5" customHeight="1"/>
+    <row r="884" ht="13.5" customHeight="1"/>
+    <row r="885" ht="13.5" customHeight="1"/>
+    <row r="886" ht="13.5" customHeight="1"/>
+    <row r="887" ht="13.5" customHeight="1"/>
+    <row r="888" ht="13.5" customHeight="1"/>
+    <row r="889" ht="13.5" customHeight="1"/>
+    <row r="890" ht="13.5" customHeight="1"/>
+    <row r="891" ht="13.5" customHeight="1"/>
+    <row r="892" ht="13.5" customHeight="1"/>
+    <row r="893" ht="13.5" customHeight="1"/>
+    <row r="894" ht="13.5" customHeight="1"/>
+    <row r="895" ht="13.5" customHeight="1"/>
+    <row r="896" ht="13.5" customHeight="1"/>
+    <row r="897" ht="13.5" customHeight="1"/>
+    <row r="898" ht="13.5" customHeight="1"/>
+    <row r="899" ht="13.5" customHeight="1"/>
+    <row r="900" ht="13.5" customHeight="1"/>
+    <row r="901" ht="13.5" customHeight="1"/>
+    <row r="902" ht="13.5" customHeight="1"/>
+    <row r="903" ht="13.5" customHeight="1"/>
+    <row r="904" ht="13.5" customHeight="1"/>
+    <row r="905" ht="13.5" customHeight="1"/>
+    <row r="906" ht="13.5" customHeight="1"/>
+    <row r="907" ht="13.5" customHeight="1"/>
+    <row r="908" ht="13.5" customHeight="1"/>
+    <row r="909" ht="13.5" customHeight="1"/>
+    <row r="910" ht="13.5" customHeight="1"/>
+    <row r="911" ht="13.5" customHeight="1"/>
+    <row r="912" ht="13.5" customHeight="1"/>
+    <row r="913" ht="13.5" customHeight="1"/>
+    <row r="914" ht="13.5" customHeight="1"/>
+    <row r="915" ht="13.5" customHeight="1"/>
+    <row r="916" ht="13.5" customHeight="1"/>
+    <row r="917" ht="13.5" customHeight="1"/>
+    <row r="918" ht="13.5" customHeight="1"/>
+    <row r="919" ht="13.5" customHeight="1"/>
+    <row r="920" ht="13.5" customHeight="1"/>
+    <row r="921" ht="13.5" customHeight="1"/>
+    <row r="922" ht="13.5" customHeight="1"/>
+    <row r="923" ht="13.5" customHeight="1"/>
+    <row r="924" ht="13.5" customHeight="1"/>
+    <row r="925" ht="13.5" customHeight="1"/>
+    <row r="926" ht="13.5" customHeight="1"/>
+    <row r="927" ht="13.5" customHeight="1"/>
+    <row r="928" ht="13.5" customHeight="1"/>
+    <row r="929" ht="13.5" customHeight="1"/>
+    <row r="930" ht="13.5" customHeight="1"/>
+    <row r="931" ht="13.5" customHeight="1"/>
+    <row r="932" ht="13.5" customHeight="1"/>
+    <row r="933" ht="13.5" customHeight="1"/>
+    <row r="934" ht="13.5" customHeight="1"/>
+    <row r="935" ht="13.5" customHeight="1"/>
+    <row r="936" ht="13.5" customHeight="1"/>
+    <row r="937" ht="13.5" customHeight="1"/>
+    <row r="938" ht="13.5" customHeight="1"/>
+    <row r="939" ht="13.5" customHeight="1"/>
+    <row r="940" ht="13.5" customHeight="1"/>
+    <row r="941" ht="13.5" customHeight="1"/>
+    <row r="942" ht="13.5" customHeight="1"/>
+    <row r="943" ht="13.5" customHeight="1"/>
+    <row r="944" ht="13.5" customHeight="1"/>
+    <row r="945" ht="13.5" customHeight="1"/>
+    <row r="946" ht="13.5" customHeight="1"/>
+    <row r="947" ht="13.5" customHeight="1"/>
+    <row r="948" ht="13.5" customHeight="1"/>
+    <row r="949" ht="13.5" customHeight="1"/>
+    <row r="950" ht="13.5" customHeight="1"/>
+    <row r="951" ht="13.5" customHeight="1"/>
+    <row r="952" ht="13.5" customHeight="1"/>
+    <row r="953" ht="13.5" customHeight="1"/>
+    <row r="954" ht="13.5" customHeight="1"/>
+    <row r="955" ht="13.5" customHeight="1"/>
+    <row r="956" ht="13.5" customHeight="1"/>
+    <row r="957" ht="13.5" customHeight="1"/>
+    <row r="958" ht="13.5" customHeight="1"/>
+    <row r="959" ht="13.5" customHeight="1"/>
+    <row r="960" ht="13.5" customHeight="1"/>
+    <row r="961" ht="13.5" customHeight="1"/>
+    <row r="962" ht="13.5" customHeight="1"/>
+    <row r="963" ht="13.5" customHeight="1"/>
+    <row r="964" ht="13.5" customHeight="1"/>
+    <row r="965" ht="13.5" customHeight="1"/>
+    <row r="966" ht="13.5" customHeight="1"/>
+    <row r="967" ht="13.5" customHeight="1"/>
+    <row r="968" ht="13.5" customHeight="1"/>
+    <row r="969" ht="13.5" customHeight="1"/>
+    <row r="970" ht="13.5" customHeight="1"/>
+    <row r="971" ht="13.5" customHeight="1"/>
+    <row r="972" ht="13.5" customHeight="1"/>
+    <row r="973" ht="13.5" customHeight="1"/>
+    <row r="974" ht="13.5" customHeight="1"/>
+    <row r="975" ht="13.5" customHeight="1"/>
+    <row r="976" ht="13.5" customHeight="1"/>
+    <row r="977" ht="13.5" customHeight="1"/>
+    <row r="978" ht="13.5" customHeight="1"/>
+    <row r="979" ht="13.5" customHeight="1"/>
+    <row r="980" ht="13.5" customHeight="1"/>
+    <row r="981" ht="13.5" customHeight="1"/>
+    <row r="982" ht="13.5" customHeight="1"/>
+    <row r="983" ht="13.5" customHeight="1"/>
+    <row r="984" ht="13.5" customHeight="1"/>
+    <row r="985" ht="13.5" customHeight="1"/>
+    <row r="986" ht="13.5" customHeight="1"/>
+    <row r="987" ht="13.5" customHeight="1"/>
+    <row r="988" ht="13.5" customHeight="1"/>
+    <row r="989" ht="13.5" customHeight="1"/>
+    <row r="990" ht="13.5" customHeight="1"/>
+    <row r="991" ht="13.5" customHeight="1"/>
+    <row r="992" ht="13.5" customHeight="1"/>
+    <row r="993" ht="13.5" customHeight="1"/>
+    <row r="994" ht="13.5" customHeight="1"/>
+    <row r="995" ht="13.5" customHeight="1"/>
+    <row r="996" ht="13.5" customHeight="1"/>
+    <row r="997" ht="13.5" customHeight="1"/>
+    <row r="998" ht="13.5" customHeight="1"/>
+    <row r="999" ht="13.5" customHeight="1"/>
+    <row r="1000" ht="13.5" customHeight="1"/>
+    <row r="1001" ht="13.5" customHeight="1"/>
+    <row r="1002" ht="13.5" customHeight="1"/>
+    <row r="1003" ht="13.5" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:HF2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J$1:J$1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="74" max="124" width="9" hidden="1" customWidth="1"/>
-    <col min="125" max="125" width="22.625" hidden="1" customWidth="1"/>
-    <col min="126" max="126" width="12.625" hidden="1" customWidth="1"/>
-    <col min="127" max="215" width="9" hidden="1" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="22.75"/>
+    <col customWidth="1" min="2" max="2" width="7.75"/>
+    <col customWidth="1" min="3" max="73" width="7.88"/>
+    <col customWidth="1" hidden="1" min="74" max="124" width="7.88"/>
+    <col customWidth="1" hidden="1" min="125" max="125" width="19.75"/>
+    <col customWidth="1" hidden="1" min="126" max="126" width="11.0"/>
+    <col customWidth="1" hidden="1" min="127" max="214" width="7.88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:214">
+    <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4178,475 +4324,475 @@
         <v>116</v>
       </c>
       <c r="BG1" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="BH1" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="BI1" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="BJ1" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="BK1" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="BL1" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="BM1" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="BN1" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="BO1" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="BP1" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="BQ1" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="BR1" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="BS1" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="BT1" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="BU1" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="BV1" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="BW1" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="BX1" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="BY1" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="BZ1" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="CA1" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="CB1" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="CC1" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="CD1" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="CE1" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="CF1" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="CG1" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="CH1" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="CI1" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="CJ1" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="CK1" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="CL1" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="CM1" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="CN1" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="CO1" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="CP1" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="CQ1" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="CR1" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="CS1" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="CT1" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="CU1" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="CV1" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="CW1" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="CX1" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="CY1" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="CZ1" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="DA1" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="DB1" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="DC1" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="DD1" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="DE1" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="DF1" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="DG1" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="DH1" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="DI1" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="DJ1" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="DK1" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="DL1" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="DM1" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="DN1" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="DO1" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="DP1" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="DQ1" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="DR1" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="DS1" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="DT1" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="DU1" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="DV1" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="DW1" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="DX1" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="DY1" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="DZ1" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="EA1" s="2" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="EB1" s="2" t="s">
         <v>68</v>
       </c>
       <c r="EC1" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="ED1" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="EE1" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="EF1" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="EG1" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="EH1" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="EI1" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="EJ1" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="EK1" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="EL1" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="EM1" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="EN1" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="EO1" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="EP1" s="2" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="EQ1" s="2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="ER1" s="2" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="ES1" s="2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="ET1" s="2" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="EU1" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="EV1" s="2" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="EW1" s="2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="EX1" s="2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="EY1" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="EZ1" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="FA1" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="FB1" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="FC1" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="FD1" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="FE1" s="2" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="FF1" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="FG1" s="2" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="FH1" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="FI1" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="FJ1" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="FK1" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="FL1" s="2" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="FM1" s="2" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="FN1" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="FO1" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="FP1" s="2" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="FQ1" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="FR1" s="2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="FS1" s="2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="FT1" s="2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="FU1" s="2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="FV1" s="2" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="FW1" s="2" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="FX1" s="2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="FY1" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="FZ1" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="GA1" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="GB1" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="GC1" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="GD1" s="2" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="GE1" s="2" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="GF1" s="2" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="GG1" s="2" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="GH1" s="2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="GI1" s="2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="GJ1" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="GK1" s="2" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="GL1" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="GM1" s="2" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="GN1" s="2" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="GO1" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="GP1" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="GQ1" s="2" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="GR1" s="2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="GS1" s="2" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="GT1" s="2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="GU1" s="2" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="GV1" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="GW1" s="2" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="GX1" s="2" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="GY1" s="2" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="GZ1" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="HA1" s="2" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="HB1" s="1" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="HC1" s="1" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="HD1" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="HE1" s="2" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="HF1" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="2" spans="1:214">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4822,220 +4968,220 @@
         <v>117</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="DS2" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="DT2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="DU2" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="DT2" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="DU2" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="DV2" s="2" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="EA2" s="2" t="s">
         <v>67</v>
@@ -5044,255 +5190,1254 @@
         <v>69</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="EI2" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="EJ2" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="EK2" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="EL2" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="EM2" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="EN2" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="EO2" s="2" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="EP2" s="2" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="EQ2" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="ER2" s="2" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="ES2" s="2" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="ET2" s="2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="EU2" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="EV2" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="EW2" s="2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="EX2" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="EY2" s="2" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="EZ2" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="FA2" s="2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="FB2" s="2" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="FC2" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="FD2" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="FE2" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="FF2" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="FG2" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="FH2" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="FI2" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="FJ2" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="FK2" s="2" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="FL2" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="FM2" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="FN2" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="FO2" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="FP2" s="2" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="FQ2" s="2" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="FR2" s="2" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="FS2" s="2" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="FT2" s="2" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="FU2" s="2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="FV2" s="2" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="FW2" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="FX2" s="2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="FY2" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="FZ2" s="2" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="GA2" s="2" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="GB2" s="2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="GC2" s="2" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="GD2" s="2" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="GE2" s="2" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="GF2" s="2" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="GG2" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="GH2" s="2" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="GI2" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="GJ2" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="GK2" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="GL2" s="2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="GM2" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="GN2" s="2" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="GO2" s="2" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="GP2" s="2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="GQ2" s="2" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="GR2" s="2" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="GS2" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="GT2" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="GU2" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="GV2" s="2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="GW2" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="GX2" s="2" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="GY2" s="2" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="GZ2" s="2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="HA2" s="2" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="HB2" s="1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="HC2" s="1" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="HD2" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="HE2" s="2" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="HF2" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1"/>
+    <row r="4" ht="13.5" customHeight="1"/>
+    <row r="5" ht="13.5" customHeight="1"/>
+    <row r="6" ht="13.5" customHeight="1"/>
+    <row r="7" ht="13.5" customHeight="1"/>
+    <row r="8" ht="13.5" customHeight="1"/>
+    <row r="9" ht="13.5" customHeight="1"/>
+    <row r="10" ht="13.5" customHeight="1"/>
+    <row r="11" ht="13.5" customHeight="1"/>
+    <row r="12" ht="13.5" customHeight="1"/>
+    <row r="13" ht="13.5" customHeight="1"/>
+    <row r="14" ht="13.5" customHeight="1"/>
+    <row r="15" ht="13.5" customHeight="1"/>
+    <row r="16" ht="13.5" customHeight="1"/>
+    <row r="17" ht="13.5" customHeight="1"/>
+    <row r="18" ht="13.5" customHeight="1"/>
+    <row r="19" ht="13.5" customHeight="1"/>
+    <row r="20" ht="13.5" customHeight="1"/>
+    <row r="21" ht="13.5" customHeight="1"/>
+    <row r="22" ht="13.5" customHeight="1"/>
+    <row r="23" ht="13.5" customHeight="1"/>
+    <row r="24" ht="13.5" customHeight="1"/>
+    <row r="25" ht="13.5" customHeight="1"/>
+    <row r="26" ht="13.5" customHeight="1"/>
+    <row r="27" ht="13.5" customHeight="1"/>
+    <row r="28" ht="13.5" customHeight="1"/>
+    <row r="29" ht="13.5" customHeight="1"/>
+    <row r="30" ht="13.5" customHeight="1"/>
+    <row r="31" ht="13.5" customHeight="1"/>
+    <row r="32" ht="13.5" customHeight="1"/>
+    <row r="33" ht="13.5" customHeight="1"/>
+    <row r="34" ht="13.5" customHeight="1"/>
+    <row r="35" ht="13.5" customHeight="1"/>
+    <row r="36" ht="13.5" customHeight="1"/>
+    <row r="37" ht="13.5" customHeight="1"/>
+    <row r="38" ht="13.5" customHeight="1"/>
+    <row r="39" ht="13.5" customHeight="1"/>
+    <row r="40" ht="13.5" customHeight="1"/>
+    <row r="41" ht="13.5" customHeight="1"/>
+    <row r="42" ht="13.5" customHeight="1"/>
+    <row r="43" ht="13.5" customHeight="1"/>
+    <row r="44" ht="13.5" customHeight="1"/>
+    <row r="45" ht="13.5" customHeight="1"/>
+    <row r="46" ht="13.5" customHeight="1"/>
+    <row r="47" ht="13.5" customHeight="1"/>
+    <row r="48" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
+    <row r="102" ht="13.5" customHeight="1"/>
+    <row r="103" ht="13.5" customHeight="1"/>
+    <row r="104" ht="13.5" customHeight="1"/>
+    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="106" ht="13.5" customHeight="1"/>
+    <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
+    <row r="113" ht="13.5" customHeight="1"/>
+    <row r="114" ht="13.5" customHeight="1"/>
+    <row r="115" ht="13.5" customHeight="1"/>
+    <row r="116" ht="13.5" customHeight="1"/>
+    <row r="117" ht="13.5" customHeight="1"/>
+    <row r="118" ht="13.5" customHeight="1"/>
+    <row r="119" ht="13.5" customHeight="1"/>
+    <row r="120" ht="13.5" customHeight="1"/>
+    <row r="121" ht="13.5" customHeight="1"/>
+    <row r="122" ht="13.5" customHeight="1"/>
+    <row r="123" ht="13.5" customHeight="1"/>
+    <row r="124" ht="13.5" customHeight="1"/>
+    <row r="125" ht="13.5" customHeight="1"/>
+    <row r="126" ht="13.5" customHeight="1"/>
+    <row r="127" ht="13.5" customHeight="1"/>
+    <row r="128" ht="13.5" customHeight="1"/>
+    <row r="129" ht="13.5" customHeight="1"/>
+    <row r="130" ht="13.5" customHeight="1"/>
+    <row r="131" ht="13.5" customHeight="1"/>
+    <row r="132" ht="13.5" customHeight="1"/>
+    <row r="133" ht="13.5" customHeight="1"/>
+    <row r="134" ht="13.5" customHeight="1"/>
+    <row r="135" ht="13.5" customHeight="1"/>
+    <row r="136" ht="13.5" customHeight="1"/>
+    <row r="137" ht="13.5" customHeight="1"/>
+    <row r="138" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1"/>
+    <row r="140" ht="13.5" customHeight="1"/>
+    <row r="141" ht="13.5" customHeight="1"/>
+    <row r="142" ht="13.5" customHeight="1"/>
+    <row r="143" ht="13.5" customHeight="1"/>
+    <row r="144" ht="13.5" customHeight="1"/>
+    <row r="145" ht="13.5" customHeight="1"/>
+    <row r="146" ht="13.5" customHeight="1"/>
+    <row r="147" ht="13.5" customHeight="1"/>
+    <row r="148" ht="13.5" customHeight="1"/>
+    <row r="149" ht="13.5" customHeight="1"/>
+    <row r="150" ht="13.5" customHeight="1"/>
+    <row r="151" ht="13.5" customHeight="1"/>
+    <row r="152" ht="13.5" customHeight="1"/>
+    <row r="153" ht="13.5" customHeight="1"/>
+    <row r="154" ht="13.5" customHeight="1"/>
+    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="156" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1"/>
+    <row r="158" ht="13.5" customHeight="1"/>
+    <row r="159" ht="13.5" customHeight="1"/>
+    <row r="160" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
+    <row r="171" ht="13.5" customHeight="1"/>
+    <row r="172" ht="13.5" customHeight="1"/>
+    <row r="173" ht="13.5" customHeight="1"/>
+    <row r="174" ht="13.5" customHeight="1"/>
+    <row r="175" ht="13.5" customHeight="1"/>
+    <row r="176" ht="13.5" customHeight="1"/>
+    <row r="177" ht="13.5" customHeight="1"/>
+    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="179" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1"/>
+    <row r="181" ht="13.5" customHeight="1"/>
+    <row r="182" ht="13.5" customHeight="1"/>
+    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="184" ht="13.5" customHeight="1"/>
+    <row r="185" ht="13.5" customHeight="1"/>
+    <row r="186" ht="13.5" customHeight="1"/>
+    <row r="187" ht="13.5" customHeight="1"/>
+    <row r="188" ht="13.5" customHeight="1"/>
+    <row r="189" ht="13.5" customHeight="1"/>
+    <row r="190" ht="13.5" customHeight="1"/>
+    <row r="191" ht="13.5" customHeight="1"/>
+    <row r="192" ht="13.5" customHeight="1"/>
+    <row r="193" ht="13.5" customHeight="1"/>
+    <row r="194" ht="13.5" customHeight="1"/>
+    <row r="195" ht="13.5" customHeight="1"/>
+    <row r="196" ht="13.5" customHeight="1"/>
+    <row r="197" ht="13.5" customHeight="1"/>
+    <row r="198" ht="13.5" customHeight="1"/>
+    <row r="199" ht="13.5" customHeight="1"/>
+    <row r="200" ht="13.5" customHeight="1"/>
+    <row r="201" ht="13.5" customHeight="1"/>
+    <row r="202" ht="13.5" customHeight="1"/>
+    <row r="203" ht="13.5" customHeight="1"/>
+    <row r="204" ht="13.5" customHeight="1"/>
+    <row r="205" ht="13.5" customHeight="1"/>
+    <row r="206" ht="13.5" customHeight="1"/>
+    <row r="207" ht="13.5" customHeight="1"/>
+    <row r="208" ht="13.5" customHeight="1"/>
+    <row r="209" ht="13.5" customHeight="1"/>
+    <row r="210" ht="13.5" customHeight="1"/>
+    <row r="211" ht="13.5" customHeight="1"/>
+    <row r="212" ht="13.5" customHeight="1"/>
+    <row r="213" ht="13.5" customHeight="1"/>
+    <row r="214" ht="13.5" customHeight="1"/>
+    <row r="215" ht="13.5" customHeight="1"/>
+    <row r="216" ht="13.5" customHeight="1"/>
+    <row r="217" ht="13.5" customHeight="1"/>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="13.5" customHeight="1"/>
+    <row r="236" ht="13.5" customHeight="1"/>
+    <row r="237" ht="13.5" customHeight="1"/>
+    <row r="238" ht="13.5" customHeight="1"/>
+    <row r="239" ht="13.5" customHeight="1"/>
+    <row r="240" ht="13.5" customHeight="1"/>
+    <row r="241" ht="13.5" customHeight="1"/>
+    <row r="242" ht="13.5" customHeight="1"/>
+    <row r="243" ht="13.5" customHeight="1"/>
+    <row r="244" ht="13.5" customHeight="1"/>
+    <row r="245" ht="13.5" customHeight="1"/>
+    <row r="246" ht="13.5" customHeight="1"/>
+    <row r="247" ht="13.5" customHeight="1"/>
+    <row r="248" ht="13.5" customHeight="1"/>
+    <row r="249" ht="13.5" customHeight="1"/>
+    <row r="250" ht="13.5" customHeight="1"/>
+    <row r="251" ht="13.5" customHeight="1"/>
+    <row r="252" ht="13.5" customHeight="1"/>
+    <row r="253" ht="13.5" customHeight="1"/>
+    <row r="254" ht="13.5" customHeight="1"/>
+    <row r="255" ht="13.5" customHeight="1"/>
+    <row r="256" ht="13.5" customHeight="1"/>
+    <row r="257" ht="13.5" customHeight="1"/>
+    <row r="258" ht="13.5" customHeight="1"/>
+    <row r="259" ht="13.5" customHeight="1"/>
+    <row r="260" ht="13.5" customHeight="1"/>
+    <row r="261" ht="13.5" customHeight="1"/>
+    <row r="262" ht="13.5" customHeight="1"/>
+    <row r="263" ht="13.5" customHeight="1"/>
+    <row r="264" ht="13.5" customHeight="1"/>
+    <row r="265" ht="13.5" customHeight="1"/>
+    <row r="266" ht="13.5" customHeight="1"/>
+    <row r="267" ht="13.5" customHeight="1"/>
+    <row r="268" ht="13.5" customHeight="1"/>
+    <row r="269" ht="13.5" customHeight="1"/>
+    <row r="270" ht="13.5" customHeight="1"/>
+    <row r="271" ht="13.5" customHeight="1"/>
+    <row r="272" ht="13.5" customHeight="1"/>
+    <row r="273" ht="13.5" customHeight="1"/>
+    <row r="274" ht="13.5" customHeight="1"/>
+    <row r="275" ht="13.5" customHeight="1"/>
+    <row r="276" ht="13.5" customHeight="1"/>
+    <row r="277" ht="13.5" customHeight="1"/>
+    <row r="278" ht="13.5" customHeight="1"/>
+    <row r="279" ht="13.5" customHeight="1"/>
+    <row r="280" ht="13.5" customHeight="1"/>
+    <row r="281" ht="13.5" customHeight="1"/>
+    <row r="282" ht="13.5" customHeight="1"/>
+    <row r="283" ht="13.5" customHeight="1"/>
+    <row r="284" ht="13.5" customHeight="1"/>
+    <row r="285" ht="13.5" customHeight="1"/>
+    <row r="286" ht="13.5" customHeight="1"/>
+    <row r="287" ht="13.5" customHeight="1"/>
+    <row r="288" ht="13.5" customHeight="1"/>
+    <row r="289" ht="13.5" customHeight="1"/>
+    <row r="290" ht="13.5" customHeight="1"/>
+    <row r="291" ht="13.5" customHeight="1"/>
+    <row r="292" ht="13.5" customHeight="1"/>
+    <row r="293" ht="13.5" customHeight="1"/>
+    <row r="294" ht="13.5" customHeight="1"/>
+    <row r="295" ht="13.5" customHeight="1"/>
+    <row r="296" ht="13.5" customHeight="1"/>
+    <row r="297" ht="13.5" customHeight="1"/>
+    <row r="298" ht="13.5" customHeight="1"/>
+    <row r="299" ht="13.5" customHeight="1"/>
+    <row r="300" ht="13.5" customHeight="1"/>
+    <row r="301" ht="13.5" customHeight="1"/>
+    <row r="302" ht="13.5" customHeight="1"/>
+    <row r="303" ht="13.5" customHeight="1"/>
+    <row r="304" ht="13.5" customHeight="1"/>
+    <row r="305" ht="13.5" customHeight="1"/>
+    <row r="306" ht="13.5" customHeight="1"/>
+    <row r="307" ht="13.5" customHeight="1"/>
+    <row r="308" ht="13.5" customHeight="1"/>
+    <row r="309" ht="13.5" customHeight="1"/>
+    <row r="310" ht="13.5" customHeight="1"/>
+    <row r="311" ht="13.5" customHeight="1"/>
+    <row r="312" ht="13.5" customHeight="1"/>
+    <row r="313" ht="13.5" customHeight="1"/>
+    <row r="314" ht="13.5" customHeight="1"/>
+    <row r="315" ht="13.5" customHeight="1"/>
+    <row r="316" ht="13.5" customHeight="1"/>
+    <row r="317" ht="13.5" customHeight="1"/>
+    <row r="318" ht="13.5" customHeight="1"/>
+    <row r="319" ht="13.5" customHeight="1"/>
+    <row r="320" ht="13.5" customHeight="1"/>
+    <row r="321" ht="13.5" customHeight="1"/>
+    <row r="322" ht="13.5" customHeight="1"/>
+    <row r="323" ht="13.5" customHeight="1"/>
+    <row r="324" ht="13.5" customHeight="1"/>
+    <row r="325" ht="13.5" customHeight="1"/>
+    <row r="326" ht="13.5" customHeight="1"/>
+    <row r="327" ht="13.5" customHeight="1"/>
+    <row r="328" ht="13.5" customHeight="1"/>
+    <row r="329" ht="13.5" customHeight="1"/>
+    <row r="330" ht="13.5" customHeight="1"/>
+    <row r="331" ht="13.5" customHeight="1"/>
+    <row r="332" ht="13.5" customHeight="1"/>
+    <row r="333" ht="13.5" customHeight="1"/>
+    <row r="334" ht="13.5" customHeight="1"/>
+    <row r="335" ht="13.5" customHeight="1"/>
+    <row r="336" ht="13.5" customHeight="1"/>
+    <row r="337" ht="13.5" customHeight="1"/>
+    <row r="338" ht="13.5" customHeight="1"/>
+    <row r="339" ht="13.5" customHeight="1"/>
+    <row r="340" ht="13.5" customHeight="1"/>
+    <row r="341" ht="13.5" customHeight="1"/>
+    <row r="342" ht="13.5" customHeight="1"/>
+    <row r="343" ht="13.5" customHeight="1"/>
+    <row r="344" ht="13.5" customHeight="1"/>
+    <row r="345" ht="13.5" customHeight="1"/>
+    <row r="346" ht="13.5" customHeight="1"/>
+    <row r="347" ht="13.5" customHeight="1"/>
+    <row r="348" ht="13.5" customHeight="1"/>
+    <row r="349" ht="13.5" customHeight="1"/>
+    <row r="350" ht="13.5" customHeight="1"/>
+    <row r="351" ht="13.5" customHeight="1"/>
+    <row r="352" ht="13.5" customHeight="1"/>
+    <row r="353" ht="13.5" customHeight="1"/>
+    <row r="354" ht="13.5" customHeight="1"/>
+    <row r="355" ht="13.5" customHeight="1"/>
+    <row r="356" ht="13.5" customHeight="1"/>
+    <row r="357" ht="13.5" customHeight="1"/>
+    <row r="358" ht="13.5" customHeight="1"/>
+    <row r="359" ht="13.5" customHeight="1"/>
+    <row r="360" ht="13.5" customHeight="1"/>
+    <row r="361" ht="13.5" customHeight="1"/>
+    <row r="362" ht="13.5" customHeight="1"/>
+    <row r="363" ht="13.5" customHeight="1"/>
+    <row r="364" ht="13.5" customHeight="1"/>
+    <row r="365" ht="13.5" customHeight="1"/>
+    <row r="366" ht="13.5" customHeight="1"/>
+    <row r="367" ht="13.5" customHeight="1"/>
+    <row r="368" ht="13.5" customHeight="1"/>
+    <row r="369" ht="13.5" customHeight="1"/>
+    <row r="370" ht="13.5" customHeight="1"/>
+    <row r="371" ht="13.5" customHeight="1"/>
+    <row r="372" ht="13.5" customHeight="1"/>
+    <row r="373" ht="13.5" customHeight="1"/>
+    <row r="374" ht="13.5" customHeight="1"/>
+    <row r="375" ht="13.5" customHeight="1"/>
+    <row r="376" ht="13.5" customHeight="1"/>
+    <row r="377" ht="13.5" customHeight="1"/>
+    <row r="378" ht="13.5" customHeight="1"/>
+    <row r="379" ht="13.5" customHeight="1"/>
+    <row r="380" ht="13.5" customHeight="1"/>
+    <row r="381" ht="13.5" customHeight="1"/>
+    <row r="382" ht="13.5" customHeight="1"/>
+    <row r="383" ht="13.5" customHeight="1"/>
+    <row r="384" ht="13.5" customHeight="1"/>
+    <row r="385" ht="13.5" customHeight="1"/>
+    <row r="386" ht="13.5" customHeight="1"/>
+    <row r="387" ht="13.5" customHeight="1"/>
+    <row r="388" ht="13.5" customHeight="1"/>
+    <row r="389" ht="13.5" customHeight="1"/>
+    <row r="390" ht="13.5" customHeight="1"/>
+    <row r="391" ht="13.5" customHeight="1"/>
+    <row r="392" ht="13.5" customHeight="1"/>
+    <row r="393" ht="13.5" customHeight="1"/>
+    <row r="394" ht="13.5" customHeight="1"/>
+    <row r="395" ht="13.5" customHeight="1"/>
+    <row r="396" ht="13.5" customHeight="1"/>
+    <row r="397" ht="13.5" customHeight="1"/>
+    <row r="398" ht="13.5" customHeight="1"/>
+    <row r="399" ht="13.5" customHeight="1"/>
+    <row r="400" ht="13.5" customHeight="1"/>
+    <row r="401" ht="13.5" customHeight="1"/>
+    <row r="402" ht="13.5" customHeight="1"/>
+    <row r="403" ht="13.5" customHeight="1"/>
+    <row r="404" ht="13.5" customHeight="1"/>
+    <row r="405" ht="13.5" customHeight="1"/>
+    <row r="406" ht="13.5" customHeight="1"/>
+    <row r="407" ht="13.5" customHeight="1"/>
+    <row r="408" ht="13.5" customHeight="1"/>
+    <row r="409" ht="13.5" customHeight="1"/>
+    <row r="410" ht="13.5" customHeight="1"/>
+    <row r="411" ht="13.5" customHeight="1"/>
+    <row r="412" ht="13.5" customHeight="1"/>
+    <row r="413" ht="13.5" customHeight="1"/>
+    <row r="414" ht="13.5" customHeight="1"/>
+    <row r="415" ht="13.5" customHeight="1"/>
+    <row r="416" ht="13.5" customHeight="1"/>
+    <row r="417" ht="13.5" customHeight="1"/>
+    <row r="418" ht="13.5" customHeight="1"/>
+    <row r="419" ht="13.5" customHeight="1"/>
+    <row r="420" ht="13.5" customHeight="1"/>
+    <row r="421" ht="13.5" customHeight="1"/>
+    <row r="422" ht="13.5" customHeight="1"/>
+    <row r="423" ht="13.5" customHeight="1"/>
+    <row r="424" ht="13.5" customHeight="1"/>
+    <row r="425" ht="13.5" customHeight="1"/>
+    <row r="426" ht="13.5" customHeight="1"/>
+    <row r="427" ht="13.5" customHeight="1"/>
+    <row r="428" ht="13.5" customHeight="1"/>
+    <row r="429" ht="13.5" customHeight="1"/>
+    <row r="430" ht="13.5" customHeight="1"/>
+    <row r="431" ht="13.5" customHeight="1"/>
+    <row r="432" ht="13.5" customHeight="1"/>
+    <row r="433" ht="13.5" customHeight="1"/>
+    <row r="434" ht="13.5" customHeight="1"/>
+    <row r="435" ht="13.5" customHeight="1"/>
+    <row r="436" ht="13.5" customHeight="1"/>
+    <row r="437" ht="13.5" customHeight="1"/>
+    <row r="438" ht="13.5" customHeight="1"/>
+    <row r="439" ht="13.5" customHeight="1"/>
+    <row r="440" ht="13.5" customHeight="1"/>
+    <row r="441" ht="13.5" customHeight="1"/>
+    <row r="442" ht="13.5" customHeight="1"/>
+    <row r="443" ht="13.5" customHeight="1"/>
+    <row r="444" ht="13.5" customHeight="1"/>
+    <row r="445" ht="13.5" customHeight="1"/>
+    <row r="446" ht="13.5" customHeight="1"/>
+    <row r="447" ht="13.5" customHeight="1"/>
+    <row r="448" ht="13.5" customHeight="1"/>
+    <row r="449" ht="13.5" customHeight="1"/>
+    <row r="450" ht="13.5" customHeight="1"/>
+    <row r="451" ht="13.5" customHeight="1"/>
+    <row r="452" ht="13.5" customHeight="1"/>
+    <row r="453" ht="13.5" customHeight="1"/>
+    <row r="454" ht="13.5" customHeight="1"/>
+    <row r="455" ht="13.5" customHeight="1"/>
+    <row r="456" ht="13.5" customHeight="1"/>
+    <row r="457" ht="13.5" customHeight="1"/>
+    <row r="458" ht="13.5" customHeight="1"/>
+    <row r="459" ht="13.5" customHeight="1"/>
+    <row r="460" ht="13.5" customHeight="1"/>
+    <row r="461" ht="13.5" customHeight="1"/>
+    <row r="462" ht="13.5" customHeight="1"/>
+    <row r="463" ht="13.5" customHeight="1"/>
+    <row r="464" ht="13.5" customHeight="1"/>
+    <row r="465" ht="13.5" customHeight="1"/>
+    <row r="466" ht="13.5" customHeight="1"/>
+    <row r="467" ht="13.5" customHeight="1"/>
+    <row r="468" ht="13.5" customHeight="1"/>
+    <row r="469" ht="13.5" customHeight="1"/>
+    <row r="470" ht="13.5" customHeight="1"/>
+    <row r="471" ht="13.5" customHeight="1"/>
+    <row r="472" ht="13.5" customHeight="1"/>
+    <row r="473" ht="13.5" customHeight="1"/>
+    <row r="474" ht="13.5" customHeight="1"/>
+    <row r="475" ht="13.5" customHeight="1"/>
+    <row r="476" ht="13.5" customHeight="1"/>
+    <row r="477" ht="13.5" customHeight="1"/>
+    <row r="478" ht="13.5" customHeight="1"/>
+    <row r="479" ht="13.5" customHeight="1"/>
+    <row r="480" ht="13.5" customHeight="1"/>
+    <row r="481" ht="13.5" customHeight="1"/>
+    <row r="482" ht="13.5" customHeight="1"/>
+    <row r="483" ht="13.5" customHeight="1"/>
+    <row r="484" ht="13.5" customHeight="1"/>
+    <row r="485" ht="13.5" customHeight="1"/>
+    <row r="486" ht="13.5" customHeight="1"/>
+    <row r="487" ht="13.5" customHeight="1"/>
+    <row r="488" ht="13.5" customHeight="1"/>
+    <row r="489" ht="13.5" customHeight="1"/>
+    <row r="490" ht="13.5" customHeight="1"/>
+    <row r="491" ht="13.5" customHeight="1"/>
+    <row r="492" ht="13.5" customHeight="1"/>
+    <row r="493" ht="13.5" customHeight="1"/>
+    <row r="494" ht="13.5" customHeight="1"/>
+    <row r="495" ht="13.5" customHeight="1"/>
+    <row r="496" ht="13.5" customHeight="1"/>
+    <row r="497" ht="13.5" customHeight="1"/>
+    <row r="498" ht="13.5" customHeight="1"/>
+    <row r="499" ht="13.5" customHeight="1"/>
+    <row r="500" ht="13.5" customHeight="1"/>
+    <row r="501" ht="13.5" customHeight="1"/>
+    <row r="502" ht="13.5" customHeight="1"/>
+    <row r="503" ht="13.5" customHeight="1"/>
+    <row r="504" ht="13.5" customHeight="1"/>
+    <row r="505" ht="13.5" customHeight="1"/>
+    <row r="506" ht="13.5" customHeight="1"/>
+    <row r="507" ht="13.5" customHeight="1"/>
+    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="509" ht="13.5" customHeight="1"/>
+    <row r="510" ht="13.5" customHeight="1"/>
+    <row r="511" ht="13.5" customHeight="1"/>
+    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="514" ht="13.5" customHeight="1"/>
+    <row r="515" ht="13.5" customHeight="1"/>
+    <row r="516" ht="13.5" customHeight="1"/>
+    <row r="517" ht="13.5" customHeight="1"/>
+    <row r="518" ht="13.5" customHeight="1"/>
+    <row r="519" ht="13.5" customHeight="1"/>
+    <row r="520" ht="13.5" customHeight="1"/>
+    <row r="521" ht="13.5" customHeight="1"/>
+    <row r="522" ht="13.5" customHeight="1"/>
+    <row r="523" ht="13.5" customHeight="1"/>
+    <row r="524" ht="13.5" customHeight="1"/>
+    <row r="525" ht="13.5" customHeight="1"/>
+    <row r="526" ht="13.5" customHeight="1"/>
+    <row r="527" ht="13.5" customHeight="1"/>
+    <row r="528" ht="13.5" customHeight="1"/>
+    <row r="529" ht="13.5" customHeight="1"/>
+    <row r="530" ht="13.5" customHeight="1"/>
+    <row r="531" ht="13.5" customHeight="1"/>
+    <row r="532" ht="13.5" customHeight="1"/>
+    <row r="533" ht="13.5" customHeight="1"/>
+    <row r="534" ht="13.5" customHeight="1"/>
+    <row r="535" ht="13.5" customHeight="1"/>
+    <row r="536" ht="13.5" customHeight="1"/>
+    <row r="537" ht="13.5" customHeight="1"/>
+    <row r="538" ht="13.5" customHeight="1"/>
+    <row r="539" ht="13.5" customHeight="1"/>
+    <row r="540" ht="13.5" customHeight="1"/>
+    <row r="541" ht="13.5" customHeight="1"/>
+    <row r="542" ht="13.5" customHeight="1"/>
+    <row r="543" ht="13.5" customHeight="1"/>
+    <row r="544" ht="13.5" customHeight="1"/>
+    <row r="545" ht="13.5" customHeight="1"/>
+    <row r="546" ht="13.5" customHeight="1"/>
+    <row r="547" ht="13.5" customHeight="1"/>
+    <row r="548" ht="13.5" customHeight="1"/>
+    <row r="549" ht="13.5" customHeight="1"/>
+    <row r="550" ht="13.5" customHeight="1"/>
+    <row r="551" ht="13.5" customHeight="1"/>
+    <row r="552" ht="13.5" customHeight="1"/>
+    <row r="553" ht="13.5" customHeight="1"/>
+    <row r="554" ht="13.5" customHeight="1"/>
+    <row r="555" ht="13.5" customHeight="1"/>
+    <row r="556" ht="13.5" customHeight="1"/>
+    <row r="557" ht="13.5" customHeight="1"/>
+    <row r="558" ht="13.5" customHeight="1"/>
+    <row r="559" ht="13.5" customHeight="1"/>
+    <row r="560" ht="13.5" customHeight="1"/>
+    <row r="561" ht="13.5" customHeight="1"/>
+    <row r="562" ht="13.5" customHeight="1"/>
+    <row r="563" ht="13.5" customHeight="1"/>
+    <row r="564" ht="13.5" customHeight="1"/>
+    <row r="565" ht="13.5" customHeight="1"/>
+    <row r="566" ht="13.5" customHeight="1"/>
+    <row r="567" ht="13.5" customHeight="1"/>
+    <row r="568" ht="13.5" customHeight="1"/>
+    <row r="569" ht="13.5" customHeight="1"/>
+    <row r="570" ht="13.5" customHeight="1"/>
+    <row r="571" ht="13.5" customHeight="1"/>
+    <row r="572" ht="13.5" customHeight="1"/>
+    <row r="573" ht="13.5" customHeight="1"/>
+    <row r="574" ht="13.5" customHeight="1"/>
+    <row r="575" ht="13.5" customHeight="1"/>
+    <row r="576" ht="13.5" customHeight="1"/>
+    <row r="577" ht="13.5" customHeight="1"/>
+    <row r="578" ht="13.5" customHeight="1"/>
+    <row r="579" ht="13.5" customHeight="1"/>
+    <row r="580" ht="13.5" customHeight="1"/>
+    <row r="581" ht="13.5" customHeight="1"/>
+    <row r="582" ht="13.5" customHeight="1"/>
+    <row r="583" ht="13.5" customHeight="1"/>
+    <row r="584" ht="13.5" customHeight="1"/>
+    <row r="585" ht="13.5" customHeight="1"/>
+    <row r="586" ht="13.5" customHeight="1"/>
+    <row r="587" ht="13.5" customHeight="1"/>
+    <row r="588" ht="13.5" customHeight="1"/>
+    <row r="589" ht="13.5" customHeight="1"/>
+    <row r="590" ht="13.5" customHeight="1"/>
+    <row r="591" ht="13.5" customHeight="1"/>
+    <row r="592" ht="13.5" customHeight="1"/>
+    <row r="593" ht="13.5" customHeight="1"/>
+    <row r="594" ht="13.5" customHeight="1"/>
+    <row r="595" ht="13.5" customHeight="1"/>
+    <row r="596" ht="13.5" customHeight="1"/>
+    <row r="597" ht="13.5" customHeight="1"/>
+    <row r="598" ht="13.5" customHeight="1"/>
+    <row r="599" ht="13.5" customHeight="1"/>
+    <row r="600" ht="13.5" customHeight="1"/>
+    <row r="601" ht="13.5" customHeight="1"/>
+    <row r="602" ht="13.5" customHeight="1"/>
+    <row r="603" ht="13.5" customHeight="1"/>
+    <row r="604" ht="13.5" customHeight="1"/>
+    <row r="605" ht="13.5" customHeight="1"/>
+    <row r="606" ht="13.5" customHeight="1"/>
+    <row r="607" ht="13.5" customHeight="1"/>
+    <row r="608" ht="13.5" customHeight="1"/>
+    <row r="609" ht="13.5" customHeight="1"/>
+    <row r="610" ht="13.5" customHeight="1"/>
+    <row r="611" ht="13.5" customHeight="1"/>
+    <row r="612" ht="13.5" customHeight="1"/>
+    <row r="613" ht="13.5" customHeight="1"/>
+    <row r="614" ht="13.5" customHeight="1"/>
+    <row r="615" ht="13.5" customHeight="1"/>
+    <row r="616" ht="13.5" customHeight="1"/>
+    <row r="617" ht="13.5" customHeight="1"/>
+    <row r="618" ht="13.5" customHeight="1"/>
+    <row r="619" ht="13.5" customHeight="1"/>
+    <row r="620" ht="13.5" customHeight="1"/>
+    <row r="621" ht="13.5" customHeight="1"/>
+    <row r="622" ht="13.5" customHeight="1"/>
+    <row r="623" ht="13.5" customHeight="1"/>
+    <row r="624" ht="13.5" customHeight="1"/>
+    <row r="625" ht="13.5" customHeight="1"/>
+    <row r="626" ht="13.5" customHeight="1"/>
+    <row r="627" ht="13.5" customHeight="1"/>
+    <row r="628" ht="13.5" customHeight="1"/>
+    <row r="629" ht="13.5" customHeight="1"/>
+    <row r="630" ht="13.5" customHeight="1"/>
+    <row r="631" ht="13.5" customHeight="1"/>
+    <row r="632" ht="13.5" customHeight="1"/>
+    <row r="633" ht="13.5" customHeight="1"/>
+    <row r="634" ht="13.5" customHeight="1"/>
+    <row r="635" ht="13.5" customHeight="1"/>
+    <row r="636" ht="13.5" customHeight="1"/>
+    <row r="637" ht="13.5" customHeight="1"/>
+    <row r="638" ht="13.5" customHeight="1"/>
+    <row r="639" ht="13.5" customHeight="1"/>
+    <row r="640" ht="13.5" customHeight="1"/>
+    <row r="641" ht="13.5" customHeight="1"/>
+    <row r="642" ht="13.5" customHeight="1"/>
+    <row r="643" ht="13.5" customHeight="1"/>
+    <row r="644" ht="13.5" customHeight="1"/>
+    <row r="645" ht="13.5" customHeight="1"/>
+    <row r="646" ht="13.5" customHeight="1"/>
+    <row r="647" ht="13.5" customHeight="1"/>
+    <row r="648" ht="13.5" customHeight="1"/>
+    <row r="649" ht="13.5" customHeight="1"/>
+    <row r="650" ht="13.5" customHeight="1"/>
+    <row r="651" ht="13.5" customHeight="1"/>
+    <row r="652" ht="13.5" customHeight="1"/>
+    <row r="653" ht="13.5" customHeight="1"/>
+    <row r="654" ht="13.5" customHeight="1"/>
+    <row r="655" ht="13.5" customHeight="1"/>
+    <row r="656" ht="13.5" customHeight="1"/>
+    <row r="657" ht="13.5" customHeight="1"/>
+    <row r="658" ht="13.5" customHeight="1"/>
+    <row r="659" ht="13.5" customHeight="1"/>
+    <row r="660" ht="13.5" customHeight="1"/>
+    <row r="661" ht="13.5" customHeight="1"/>
+    <row r="662" ht="13.5" customHeight="1"/>
+    <row r="663" ht="13.5" customHeight="1"/>
+    <row r="664" ht="13.5" customHeight="1"/>
+    <row r="665" ht="13.5" customHeight="1"/>
+    <row r="666" ht="13.5" customHeight="1"/>
+    <row r="667" ht="13.5" customHeight="1"/>
+    <row r="668" ht="13.5" customHeight="1"/>
+    <row r="669" ht="13.5" customHeight="1"/>
+    <row r="670" ht="13.5" customHeight="1"/>
+    <row r="671" ht="13.5" customHeight="1"/>
+    <row r="672" ht="13.5" customHeight="1"/>
+    <row r="673" ht="13.5" customHeight="1"/>
+    <row r="674" ht="13.5" customHeight="1"/>
+    <row r="675" ht="13.5" customHeight="1"/>
+    <row r="676" ht="13.5" customHeight="1"/>
+    <row r="677" ht="13.5" customHeight="1"/>
+    <row r="678" ht="13.5" customHeight="1"/>
+    <row r="679" ht="13.5" customHeight="1"/>
+    <row r="680" ht="13.5" customHeight="1"/>
+    <row r="681" ht="13.5" customHeight="1"/>
+    <row r="682" ht="13.5" customHeight="1"/>
+    <row r="683" ht="13.5" customHeight="1"/>
+    <row r="684" ht="13.5" customHeight="1"/>
+    <row r="685" ht="13.5" customHeight="1"/>
+    <row r="686" ht="13.5" customHeight="1"/>
+    <row r="687" ht="13.5" customHeight="1"/>
+    <row r="688" ht="13.5" customHeight="1"/>
+    <row r="689" ht="13.5" customHeight="1"/>
+    <row r="690" ht="13.5" customHeight="1"/>
+    <row r="691" ht="13.5" customHeight="1"/>
+    <row r="692" ht="13.5" customHeight="1"/>
+    <row r="693" ht="13.5" customHeight="1"/>
+    <row r="694" ht="13.5" customHeight="1"/>
+    <row r="695" ht="13.5" customHeight="1"/>
+    <row r="696" ht="13.5" customHeight="1"/>
+    <row r="697" ht="13.5" customHeight="1"/>
+    <row r="698" ht="13.5" customHeight="1"/>
+    <row r="699" ht="13.5" customHeight="1"/>
+    <row r="700" ht="13.5" customHeight="1"/>
+    <row r="701" ht="13.5" customHeight="1"/>
+    <row r="702" ht="13.5" customHeight="1"/>
+    <row r="703" ht="13.5" customHeight="1"/>
+    <row r="704" ht="13.5" customHeight="1"/>
+    <row r="705" ht="13.5" customHeight="1"/>
+    <row r="706" ht="13.5" customHeight="1"/>
+    <row r="707" ht="13.5" customHeight="1"/>
+    <row r="708" ht="13.5" customHeight="1"/>
+    <row r="709" ht="13.5" customHeight="1"/>
+    <row r="710" ht="13.5" customHeight="1"/>
+    <row r="711" ht="13.5" customHeight="1"/>
+    <row r="712" ht="13.5" customHeight="1"/>
+    <row r="713" ht="13.5" customHeight="1"/>
+    <row r="714" ht="13.5" customHeight="1"/>
+    <row r="715" ht="13.5" customHeight="1"/>
+    <row r="716" ht="13.5" customHeight="1"/>
+    <row r="717" ht="13.5" customHeight="1"/>
+    <row r="718" ht="13.5" customHeight="1"/>
+    <row r="719" ht="13.5" customHeight="1"/>
+    <row r="720" ht="13.5" customHeight="1"/>
+    <row r="721" ht="13.5" customHeight="1"/>
+    <row r="722" ht="13.5" customHeight="1"/>
+    <row r="723" ht="13.5" customHeight="1"/>
+    <row r="724" ht="13.5" customHeight="1"/>
+    <row r="725" ht="13.5" customHeight="1"/>
+    <row r="726" ht="13.5" customHeight="1"/>
+    <row r="727" ht="13.5" customHeight="1"/>
+    <row r="728" ht="13.5" customHeight="1"/>
+    <row r="729" ht="13.5" customHeight="1"/>
+    <row r="730" ht="13.5" customHeight="1"/>
+    <row r="731" ht="13.5" customHeight="1"/>
+    <row r="732" ht="13.5" customHeight="1"/>
+    <row r="733" ht="13.5" customHeight="1"/>
+    <row r="734" ht="13.5" customHeight="1"/>
+    <row r="735" ht="13.5" customHeight="1"/>
+    <row r="736" ht="13.5" customHeight="1"/>
+    <row r="737" ht="13.5" customHeight="1"/>
+    <row r="738" ht="13.5" customHeight="1"/>
+    <row r="739" ht="13.5" customHeight="1"/>
+    <row r="740" ht="13.5" customHeight="1"/>
+    <row r="741" ht="13.5" customHeight="1"/>
+    <row r="742" ht="13.5" customHeight="1"/>
+    <row r="743" ht="13.5" customHeight="1"/>
+    <row r="744" ht="13.5" customHeight="1"/>
+    <row r="745" ht="13.5" customHeight="1"/>
+    <row r="746" ht="13.5" customHeight="1"/>
+    <row r="747" ht="13.5" customHeight="1"/>
+    <row r="748" ht="13.5" customHeight="1"/>
+    <row r="749" ht="13.5" customHeight="1"/>
+    <row r="750" ht="13.5" customHeight="1"/>
+    <row r="751" ht="13.5" customHeight="1"/>
+    <row r="752" ht="13.5" customHeight="1"/>
+    <row r="753" ht="13.5" customHeight="1"/>
+    <row r="754" ht="13.5" customHeight="1"/>
+    <row r="755" ht="13.5" customHeight="1"/>
+    <row r="756" ht="13.5" customHeight="1"/>
+    <row r="757" ht="13.5" customHeight="1"/>
+    <row r="758" ht="13.5" customHeight="1"/>
+    <row r="759" ht="13.5" customHeight="1"/>
+    <row r="760" ht="13.5" customHeight="1"/>
+    <row r="761" ht="13.5" customHeight="1"/>
+    <row r="762" ht="13.5" customHeight="1"/>
+    <row r="763" ht="13.5" customHeight="1"/>
+    <row r="764" ht="13.5" customHeight="1"/>
+    <row r="765" ht="13.5" customHeight="1"/>
+    <row r="766" ht="13.5" customHeight="1"/>
+    <row r="767" ht="13.5" customHeight="1"/>
+    <row r="768" ht="13.5" customHeight="1"/>
+    <row r="769" ht="13.5" customHeight="1"/>
+    <row r="770" ht="13.5" customHeight="1"/>
+    <row r="771" ht="13.5" customHeight="1"/>
+    <row r="772" ht="13.5" customHeight="1"/>
+    <row r="773" ht="13.5" customHeight="1"/>
+    <row r="774" ht="13.5" customHeight="1"/>
+    <row r="775" ht="13.5" customHeight="1"/>
+    <row r="776" ht="13.5" customHeight="1"/>
+    <row r="777" ht="13.5" customHeight="1"/>
+    <row r="778" ht="13.5" customHeight="1"/>
+    <row r="779" ht="13.5" customHeight="1"/>
+    <row r="780" ht="13.5" customHeight="1"/>
+    <row r="781" ht="13.5" customHeight="1"/>
+    <row r="782" ht="13.5" customHeight="1"/>
+    <row r="783" ht="13.5" customHeight="1"/>
+    <row r="784" ht="13.5" customHeight="1"/>
+    <row r="785" ht="13.5" customHeight="1"/>
+    <row r="786" ht="13.5" customHeight="1"/>
+    <row r="787" ht="13.5" customHeight="1"/>
+    <row r="788" ht="13.5" customHeight="1"/>
+    <row r="789" ht="13.5" customHeight="1"/>
+    <row r="790" ht="13.5" customHeight="1"/>
+    <row r="791" ht="13.5" customHeight="1"/>
+    <row r="792" ht="13.5" customHeight="1"/>
+    <row r="793" ht="13.5" customHeight="1"/>
+    <row r="794" ht="13.5" customHeight="1"/>
+    <row r="795" ht="13.5" customHeight="1"/>
+    <row r="796" ht="13.5" customHeight="1"/>
+    <row r="797" ht="13.5" customHeight="1"/>
+    <row r="798" ht="13.5" customHeight="1"/>
+    <row r="799" ht="13.5" customHeight="1"/>
+    <row r="800" ht="13.5" customHeight="1"/>
+    <row r="801" ht="13.5" customHeight="1"/>
+    <row r="802" ht="13.5" customHeight="1"/>
+    <row r="803" ht="13.5" customHeight="1"/>
+    <row r="804" ht="13.5" customHeight="1"/>
+    <row r="805" ht="13.5" customHeight="1"/>
+    <row r="806" ht="13.5" customHeight="1"/>
+    <row r="807" ht="13.5" customHeight="1"/>
+    <row r="808" ht="13.5" customHeight="1"/>
+    <row r="809" ht="13.5" customHeight="1"/>
+    <row r="810" ht="13.5" customHeight="1"/>
+    <row r="811" ht="13.5" customHeight="1"/>
+    <row r="812" ht="13.5" customHeight="1"/>
+    <row r="813" ht="13.5" customHeight="1"/>
+    <row r="814" ht="13.5" customHeight="1"/>
+    <row r="815" ht="13.5" customHeight="1"/>
+    <row r="816" ht="13.5" customHeight="1"/>
+    <row r="817" ht="13.5" customHeight="1"/>
+    <row r="818" ht="13.5" customHeight="1"/>
+    <row r="819" ht="13.5" customHeight="1"/>
+    <row r="820" ht="13.5" customHeight="1"/>
+    <row r="821" ht="13.5" customHeight="1"/>
+    <row r="822" ht="13.5" customHeight="1"/>
+    <row r="823" ht="13.5" customHeight="1"/>
+    <row r="824" ht="13.5" customHeight="1"/>
+    <row r="825" ht="13.5" customHeight="1"/>
+    <row r="826" ht="13.5" customHeight="1"/>
+    <row r="827" ht="13.5" customHeight="1"/>
+    <row r="828" ht="13.5" customHeight="1"/>
+    <row r="829" ht="13.5" customHeight="1"/>
+    <row r="830" ht="13.5" customHeight="1"/>
+    <row r="831" ht="13.5" customHeight="1"/>
+    <row r="832" ht="13.5" customHeight="1"/>
+    <row r="833" ht="13.5" customHeight="1"/>
+    <row r="834" ht="13.5" customHeight="1"/>
+    <row r="835" ht="13.5" customHeight="1"/>
+    <row r="836" ht="13.5" customHeight="1"/>
+    <row r="837" ht="13.5" customHeight="1"/>
+    <row r="838" ht="13.5" customHeight="1"/>
+    <row r="839" ht="13.5" customHeight="1"/>
+    <row r="840" ht="13.5" customHeight="1"/>
+    <row r="841" ht="13.5" customHeight="1"/>
+    <row r="842" ht="13.5" customHeight="1"/>
+    <row r="843" ht="13.5" customHeight="1"/>
+    <row r="844" ht="13.5" customHeight="1"/>
+    <row r="845" ht="13.5" customHeight="1"/>
+    <row r="846" ht="13.5" customHeight="1"/>
+    <row r="847" ht="13.5" customHeight="1"/>
+    <row r="848" ht="13.5" customHeight="1"/>
+    <row r="849" ht="13.5" customHeight="1"/>
+    <row r="850" ht="13.5" customHeight="1"/>
+    <row r="851" ht="13.5" customHeight="1"/>
+    <row r="852" ht="13.5" customHeight="1"/>
+    <row r="853" ht="13.5" customHeight="1"/>
+    <row r="854" ht="13.5" customHeight="1"/>
+    <row r="855" ht="13.5" customHeight="1"/>
+    <row r="856" ht="13.5" customHeight="1"/>
+    <row r="857" ht="13.5" customHeight="1"/>
+    <row r="858" ht="13.5" customHeight="1"/>
+    <row r="859" ht="13.5" customHeight="1"/>
+    <row r="860" ht="13.5" customHeight="1"/>
+    <row r="861" ht="13.5" customHeight="1"/>
+    <row r="862" ht="13.5" customHeight="1"/>
+    <row r="863" ht="13.5" customHeight="1"/>
+    <row r="864" ht="13.5" customHeight="1"/>
+    <row r="865" ht="13.5" customHeight="1"/>
+    <row r="866" ht="13.5" customHeight="1"/>
+    <row r="867" ht="13.5" customHeight="1"/>
+    <row r="868" ht="13.5" customHeight="1"/>
+    <row r="869" ht="13.5" customHeight="1"/>
+    <row r="870" ht="13.5" customHeight="1"/>
+    <row r="871" ht="13.5" customHeight="1"/>
+    <row r="872" ht="13.5" customHeight="1"/>
+    <row r="873" ht="13.5" customHeight="1"/>
+    <row r="874" ht="13.5" customHeight="1"/>
+    <row r="875" ht="13.5" customHeight="1"/>
+    <row r="876" ht="13.5" customHeight="1"/>
+    <row r="877" ht="13.5" customHeight="1"/>
+    <row r="878" ht="13.5" customHeight="1"/>
+    <row r="879" ht="13.5" customHeight="1"/>
+    <row r="880" ht="13.5" customHeight="1"/>
+    <row r="881" ht="13.5" customHeight="1"/>
+    <row r="882" ht="13.5" customHeight="1"/>
+    <row r="883" ht="13.5" customHeight="1"/>
+    <row r="884" ht="13.5" customHeight="1"/>
+    <row r="885" ht="13.5" customHeight="1"/>
+    <row r="886" ht="13.5" customHeight="1"/>
+    <row r="887" ht="13.5" customHeight="1"/>
+    <row r="888" ht="13.5" customHeight="1"/>
+    <row r="889" ht="13.5" customHeight="1"/>
+    <row r="890" ht="13.5" customHeight="1"/>
+    <row r="891" ht="13.5" customHeight="1"/>
+    <row r="892" ht="13.5" customHeight="1"/>
+    <row r="893" ht="13.5" customHeight="1"/>
+    <row r="894" ht="13.5" customHeight="1"/>
+    <row r="895" ht="13.5" customHeight="1"/>
+    <row r="896" ht="13.5" customHeight="1"/>
+    <row r="897" ht="13.5" customHeight="1"/>
+    <row r="898" ht="13.5" customHeight="1"/>
+    <row r="899" ht="13.5" customHeight="1"/>
+    <row r="900" ht="13.5" customHeight="1"/>
+    <row r="901" ht="13.5" customHeight="1"/>
+    <row r="902" ht="13.5" customHeight="1"/>
+    <row r="903" ht="13.5" customHeight="1"/>
+    <row r="904" ht="13.5" customHeight="1"/>
+    <row r="905" ht="13.5" customHeight="1"/>
+    <row r="906" ht="13.5" customHeight="1"/>
+    <row r="907" ht="13.5" customHeight="1"/>
+    <row r="908" ht="13.5" customHeight="1"/>
+    <row r="909" ht="13.5" customHeight="1"/>
+    <row r="910" ht="13.5" customHeight="1"/>
+    <row r="911" ht="13.5" customHeight="1"/>
+    <row r="912" ht="13.5" customHeight="1"/>
+    <row r="913" ht="13.5" customHeight="1"/>
+    <row r="914" ht="13.5" customHeight="1"/>
+    <row r="915" ht="13.5" customHeight="1"/>
+    <row r="916" ht="13.5" customHeight="1"/>
+    <row r="917" ht="13.5" customHeight="1"/>
+    <row r="918" ht="13.5" customHeight="1"/>
+    <row r="919" ht="13.5" customHeight="1"/>
+    <row r="920" ht="13.5" customHeight="1"/>
+    <row r="921" ht="13.5" customHeight="1"/>
+    <row r="922" ht="13.5" customHeight="1"/>
+    <row r="923" ht="13.5" customHeight="1"/>
+    <row r="924" ht="13.5" customHeight="1"/>
+    <row r="925" ht="13.5" customHeight="1"/>
+    <row r="926" ht="13.5" customHeight="1"/>
+    <row r="927" ht="13.5" customHeight="1"/>
+    <row r="928" ht="13.5" customHeight="1"/>
+    <row r="929" ht="13.5" customHeight="1"/>
+    <row r="930" ht="13.5" customHeight="1"/>
+    <row r="931" ht="13.5" customHeight="1"/>
+    <row r="932" ht="13.5" customHeight="1"/>
+    <row r="933" ht="13.5" customHeight="1"/>
+    <row r="934" ht="13.5" customHeight="1"/>
+    <row r="935" ht="13.5" customHeight="1"/>
+    <row r="936" ht="13.5" customHeight="1"/>
+    <row r="937" ht="13.5" customHeight="1"/>
+    <row r="938" ht="13.5" customHeight="1"/>
+    <row r="939" ht="13.5" customHeight="1"/>
+    <row r="940" ht="13.5" customHeight="1"/>
+    <row r="941" ht="13.5" customHeight="1"/>
+    <row r="942" ht="13.5" customHeight="1"/>
+    <row r="943" ht="13.5" customHeight="1"/>
+    <row r="944" ht="13.5" customHeight="1"/>
+    <row r="945" ht="13.5" customHeight="1"/>
+    <row r="946" ht="13.5" customHeight="1"/>
+    <row r="947" ht="13.5" customHeight="1"/>
+    <row r="948" ht="13.5" customHeight="1"/>
+    <row r="949" ht="13.5" customHeight="1"/>
+    <row r="950" ht="13.5" customHeight="1"/>
+    <row r="951" ht="13.5" customHeight="1"/>
+    <row r="952" ht="13.5" customHeight="1"/>
+    <row r="953" ht="13.5" customHeight="1"/>
+    <row r="954" ht="13.5" customHeight="1"/>
+    <row r="955" ht="13.5" customHeight="1"/>
+    <row r="956" ht="13.5" customHeight="1"/>
+    <row r="957" ht="13.5" customHeight="1"/>
+    <row r="958" ht="13.5" customHeight="1"/>
+    <row r="959" ht="13.5" customHeight="1"/>
+    <row r="960" ht="13.5" customHeight="1"/>
+    <row r="961" ht="13.5" customHeight="1"/>
+    <row r="962" ht="13.5" customHeight="1"/>
+    <row r="963" ht="13.5" customHeight="1"/>
+    <row r="964" ht="13.5" customHeight="1"/>
+    <row r="965" ht="13.5" customHeight="1"/>
+    <row r="966" ht="13.5" customHeight="1"/>
+    <row r="967" ht="13.5" customHeight="1"/>
+    <row r="968" ht="13.5" customHeight="1"/>
+    <row r="969" ht="13.5" customHeight="1"/>
+    <row r="970" ht="13.5" customHeight="1"/>
+    <row r="971" ht="13.5" customHeight="1"/>
+    <row r="972" ht="13.5" customHeight="1"/>
+    <row r="973" ht="13.5" customHeight="1"/>
+    <row r="974" ht="13.5" customHeight="1"/>
+    <row r="975" ht="13.5" customHeight="1"/>
+    <row r="976" ht="13.5" customHeight="1"/>
+    <row r="977" ht="13.5" customHeight="1"/>
+    <row r="978" ht="13.5" customHeight="1"/>
+    <row r="979" ht="13.5" customHeight="1"/>
+    <row r="980" ht="13.5" customHeight="1"/>
+    <row r="981" ht="13.5" customHeight="1"/>
+    <row r="982" ht="13.5" customHeight="1"/>
+    <row r="983" ht="13.5" customHeight="1"/>
+    <row r="984" ht="13.5" customHeight="1"/>
+    <row r="985" ht="13.5" customHeight="1"/>
+    <row r="986" ht="13.5" customHeight="1"/>
+    <row r="987" ht="13.5" customHeight="1"/>
+    <row r="988" ht="13.5" customHeight="1"/>
+    <row r="989" ht="13.5" customHeight="1"/>
+    <row r="990" ht="13.5" customHeight="1"/>
+    <row r="991" ht="13.5" customHeight="1"/>
+    <row r="992" ht="13.5" customHeight="1"/>
+    <row r="993" ht="13.5" customHeight="1"/>
+    <row r="994" ht="13.5" customHeight="1"/>
+    <row r="995" ht="13.5" customHeight="1"/>
+    <row r="996" ht="13.5" customHeight="1"/>
+    <row r="997" ht="13.5" customHeight="1"/>
+    <row r="998" ht="13.5" customHeight="1"/>
+    <row r="999" ht="13.5" customHeight="1"/>
+    <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>